--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.23350691156919</v>
+        <v>17.23350691156923</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.6189223400324</v>
+        <v>10.61892234003243</v>
       </c>
       <c r="E2">
-        <v>46.9183381340893</v>
+        <v>46.91833813408945</v>
       </c>
       <c r="F2">
-        <v>71.77885231213415</v>
+        <v>71.77885231213419</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>42.10182762511492</v>
+        <v>42.10182762511504</v>
       </c>
       <c r="L2">
-        <v>34.29298482631987</v>
+        <v>34.29298482631996</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.455729874233672</v>
+        <v>9.455729874233676</v>
       </c>
       <c r="E3">
-        <v>43.22004959847502</v>
+        <v>43.2200495984752</v>
       </c>
       <c r="F3">
-        <v>64.65094828767681</v>
+        <v>64.65094828767661</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.04250907247807</v>
+        <v>15.04250907247809</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.768859794723477</v>
+        <v>8.768859794723385</v>
       </c>
       <c r="E4">
-        <v>40.93746264223629</v>
+        <v>40.93746264223624</v>
       </c>
       <c r="F4">
-        <v>60.41235150000885</v>
+        <v>60.4123515000088</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>36.48994164296636</v>
       </c>
       <c r="L4">
-        <v>29.80992925794937</v>
+        <v>29.80992925794939</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69151080114104</v>
+        <v>14.69151080114109</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.492835086129709</v>
+        <v>8.492835086129737</v>
       </c>
       <c r="E5">
-        <v>39.99841313758461</v>
+        <v>39.99841313758471</v>
       </c>
       <c r="F5">
-        <v>58.70371705697082</v>
+        <v>58.70371705697096</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.60608759753845</v>
+        <v>35.60608759753836</v>
       </c>
       <c r="L5">
-        <v>29.1013728183854</v>
+        <v>29.10137281838538</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63281743938129</v>
+        <v>14.63281743938131</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.447167832743055</v>
+        <v>8.447167832742993</v>
       </c>
       <c r="E6">
-        <v>39.84181459485522</v>
+        <v>39.84181459485541</v>
       </c>
       <c r="F6">
-        <v>58.4207646722579</v>
+        <v>58.42076467225776</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>35.45863319913808</v>
+        <v>35.45863319913813</v>
       </c>
       <c r="L6">
-        <v>28.98310708474336</v>
+        <v>28.98310708474343</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.03780228802579</v>
+        <v>15.03780228802577</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.765124700066812</v>
+        <v>8.765124700066801</v>
       </c>
       <c r="E7">
-        <v>40.92484051046774</v>
+        <v>40.92484051046782</v>
       </c>
       <c r="F7">
-        <v>60.38924974166745</v>
+        <v>60.38924974166788</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>36.47806560120532</v>
+        <v>36.47806560120539</v>
       </c>
       <c r="L7">
-        <v>29.80041256621965</v>
+        <v>29.80041256621967</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.77292299243842</v>
+        <v>16.77292299243847</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.20997413626356</v>
+        <v>10.20997413626354</v>
       </c>
       <c r="E8">
-        <v>45.6412677515715</v>
+        <v>45.64126775157159</v>
       </c>
       <c r="F8">
-        <v>69.28059598224944</v>
+        <v>69.28059598224954</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40.90655944390522</v>
+        <v>40.90655944390528</v>
       </c>
       <c r="L8">
-        <v>33.3407146705044</v>
+        <v>33.34071467050448</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.11857354239372</v>
+        <v>20.11857354239374</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.5108926346429</v>
+        <v>13.51089263464294</v>
       </c>
       <c r="E9">
-        <v>55.29308479154182</v>
+        <v>55.29308479154189</v>
       </c>
       <c r="F9">
-        <v>89.17408082543878</v>
+        <v>89.17408082543835</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>49.86607738572808</v>
+        <v>49.86607738572813</v>
       </c>
       <c r="L9">
-        <v>40.433268064629</v>
+        <v>40.43326806462908</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E10">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F10">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L10">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E11">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F11">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L11">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E12">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F12">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L12">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E13">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F13">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L13">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E14">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F14">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L14">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E15">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F15">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L15">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E16">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F16">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L16">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E17">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F17">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L17">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E18">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F18">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L18">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E19">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F19">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L19">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E20">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F20">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L20">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E21">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F21">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L21">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E22">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F22">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L22">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E23">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F23">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L23">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E24">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F24">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L24">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99180145054201</v>
+        <v>22.99180145054199</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.4194094142853</v>
+        <v>17.41940941428548</v>
       </c>
       <c r="E25">
-        <v>65.04216361147031</v>
+        <v>65.04216361147046</v>
       </c>
       <c r="F25">
-        <v>111.8069346545551</v>
+        <v>111.8069346545566</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>58.50882099645325</v>
+        <v>58.50882099645336</v>
       </c>
       <c r="L25">
-        <v>47.1253257320957</v>
+        <v>47.12532573209575</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.23350691156923</v>
+        <v>17.23350691156919</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.61892234003243</v>
+        <v>10.6189223400324</v>
       </c>
       <c r="E2">
-        <v>46.91833813408945</v>
+        <v>46.9183381340893</v>
       </c>
       <c r="F2">
-        <v>71.77885231213419</v>
+        <v>71.77885231213415</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>42.10182762511504</v>
+        <v>42.10182762511492</v>
       </c>
       <c r="L2">
-        <v>34.29298482631996</v>
+        <v>34.29298482631987</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.455729874233676</v>
+        <v>9.455729874233672</v>
       </c>
       <c r="E3">
-        <v>43.2200495984752</v>
+        <v>43.22004959847502</v>
       </c>
       <c r="F3">
-        <v>64.65094828767661</v>
+        <v>64.65094828767681</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.04250907247809</v>
+        <v>15.04250907247807</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.768859794723385</v>
+        <v>8.768859794723477</v>
       </c>
       <c r="E4">
-        <v>40.93746264223624</v>
+        <v>40.93746264223629</v>
       </c>
       <c r="F4">
-        <v>60.4123515000088</v>
+        <v>60.41235150000885</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>36.48994164296636</v>
       </c>
       <c r="L4">
-        <v>29.80992925794939</v>
+        <v>29.80992925794937</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69151080114109</v>
+        <v>14.69151080114104</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.492835086129737</v>
+        <v>8.492835086129709</v>
       </c>
       <c r="E5">
-        <v>39.99841313758471</v>
+        <v>39.99841313758461</v>
       </c>
       <c r="F5">
-        <v>58.70371705697096</v>
+        <v>58.70371705697082</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.60608759753836</v>
+        <v>35.60608759753845</v>
       </c>
       <c r="L5">
-        <v>29.10137281838538</v>
+        <v>29.1013728183854</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63281743938131</v>
+        <v>14.63281743938129</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.447167832742993</v>
+        <v>8.447167832743055</v>
       </c>
       <c r="E6">
-        <v>39.84181459485541</v>
+        <v>39.84181459485522</v>
       </c>
       <c r="F6">
-        <v>58.42076467225776</v>
+        <v>58.4207646722579</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>35.45863319913813</v>
+        <v>35.45863319913808</v>
       </c>
       <c r="L6">
-        <v>28.98310708474343</v>
+        <v>28.98310708474336</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.03780228802577</v>
+        <v>15.03780228802579</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.765124700066801</v>
+        <v>8.765124700066812</v>
       </c>
       <c r="E7">
-        <v>40.92484051046782</v>
+        <v>40.92484051046774</v>
       </c>
       <c r="F7">
-        <v>60.38924974166788</v>
+        <v>60.38924974166745</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>36.47806560120539</v>
+        <v>36.47806560120532</v>
       </c>
       <c r="L7">
-        <v>29.80041256621967</v>
+        <v>29.80041256621965</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.77292299243847</v>
+        <v>16.77292299243842</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.20997413626354</v>
+        <v>10.20997413626356</v>
       </c>
       <c r="E8">
-        <v>45.64126775157159</v>
+        <v>45.6412677515715</v>
       </c>
       <c r="F8">
-        <v>69.28059598224954</v>
+        <v>69.28059598224944</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40.90655944390528</v>
+        <v>40.90655944390522</v>
       </c>
       <c r="L8">
-        <v>33.34071467050448</v>
+        <v>33.3407146705044</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.11857354239374</v>
+        <v>20.11857354239372</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.51089263464294</v>
+        <v>13.5108926346429</v>
       </c>
       <c r="E9">
-        <v>55.29308479154189</v>
+        <v>55.29308479154182</v>
       </c>
       <c r="F9">
-        <v>89.17408082543835</v>
+        <v>89.17408082543878</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>49.86607738572813</v>
+        <v>49.86607738572808</v>
       </c>
       <c r="L9">
-        <v>40.43326806462908</v>
+        <v>40.433268064629</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E10">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F10">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L10">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E11">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F11">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L11">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E12">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F12">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L12">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E13">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F13">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L13">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E14">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F14">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L14">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E15">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F15">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L15">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E16">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F16">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L16">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E17">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F17">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L17">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E18">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F18">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L18">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E19">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F19">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L19">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E20">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F20">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L20">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E21">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F21">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L21">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E22">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F22">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L22">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E23">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F23">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L23">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E24">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F24">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L24">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99180145054199</v>
+        <v>22.99180145054201</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.41940941428548</v>
+        <v>17.4194094142853</v>
       </c>
       <c r="E25">
-        <v>65.04216361147046</v>
+        <v>65.04216361147031</v>
       </c>
       <c r="F25">
-        <v>111.8069346545566</v>
+        <v>111.8069346545551</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>58.50882099645336</v>
+        <v>58.50882099645325</v>
       </c>
       <c r="L25">
-        <v>47.12532573209575</v>
+        <v>47.1253257320957</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.23350691156919</v>
+        <v>17.17793962105765</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.6189223400324</v>
+        <v>10.41625469039087</v>
       </c>
       <c r="E2">
-        <v>46.9183381340893</v>
+        <v>46.49560371965675</v>
       </c>
       <c r="F2">
-        <v>71.77885231213415</v>
+        <v>71.02314940320802</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.830304232786591</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>42.10182762511492</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>34.29298482631987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>41.84057930808944</v>
+      </c>
+      <c r="M2">
+        <v>34.09272666104611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.88837947874961</v>
+        <v>15.84009329152517</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.455729874233672</v>
+        <v>9.276699354155603</v>
       </c>
       <c r="E3">
-        <v>43.22004959847502</v>
+        <v>42.82502988291475</v>
       </c>
       <c r="F3">
-        <v>64.65094828767681</v>
+        <v>64.03675027856427</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.875197486443801</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>38.63559754955609</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>31.52743135250196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>38.40187261650085</v>
+      </c>
+      <c r="M3">
+        <v>31.34595609094024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.04250907247807</v>
+        <v>14.99823852792897</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.768859794723477</v>
+        <v>8.603756909742268</v>
       </c>
       <c r="E4">
-        <v>40.93746264223629</v>
+        <v>40.55534047639259</v>
       </c>
       <c r="F4">
-        <v>60.41235150000885</v>
+        <v>59.88179682255038</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.901339707408356</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>36.48994164296636</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>29.80992925794937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>36.27071853655009</v>
+      </c>
+      <c r="M4">
+        <v>29.63811954995897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.69151080114104</v>
+        <v>14.64881779075816</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.492835086129709</v>
+        <v>8.333429379032617</v>
       </c>
       <c r="E5">
-        <v>39.99841313758461</v>
+        <v>39.62079585261323</v>
       </c>
       <c r="F5">
-        <v>58.70371705697082</v>
+        <v>58.20736205101581</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.911764135206099</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>35.60608759753845</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>29.1013728183854</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>35.3923996390614</v>
+      </c>
+      <c r="M5">
+        <v>28.9331961076477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63281743938129</v>
+        <v>14.59038400212971</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.447167832743055</v>
+        <v>8.288713220424162</v>
       </c>
       <c r="E6">
-        <v>39.84181459485522</v>
+        <v>39.46490559044516</v>
       </c>
       <c r="F6">
-        <v>58.4207646722579</v>
+        <v>57.93011599186109</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.913484252376419</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>35.45863319913808</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>28.98310708474336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>35.24584644313708</v>
+      </c>
+      <c r="M6">
+        <v>28.8155185015158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.03780228802579</v>
+        <v>14.9935532013413</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.765124700066812</v>
+        <v>8.600098385214604</v>
       </c>
       <c r="E7">
-        <v>40.92484051046774</v>
+        <v>40.54278187162334</v>
       </c>
       <c r="F7">
-        <v>60.38924974166745</v>
+        <v>59.85915486532464</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.901481082440557</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>36.47806560120532</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>29.80041256621965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>36.25891843647115</v>
+      </c>
+      <c r="M7">
+        <v>29.62865293354056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.77292299243842</v>
+        <v>16.72000393731919</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.20997413626356</v>
+        <v>10.01570604566729</v>
       </c>
       <c r="E8">
-        <v>45.6412677515715</v>
+        <v>45.2291753424626</v>
       </c>
       <c r="F8">
-        <v>69.28059598224944</v>
+        <v>68.57506403126573</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.84617287190683</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>40.90655944390522</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>33.3407146705044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>40.65547968240402</v>
+      </c>
+      <c r="M8">
+        <v>33.14745076142654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.11857354239372</v>
+        <v>20.03911464960582</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.5108926346429</v>
+        <v>13.23760199256285</v>
       </c>
       <c r="E9">
-        <v>55.29308479154182</v>
+        <v>54.75620371328903</v>
       </c>
       <c r="F9">
-        <v>89.17408082543878</v>
+        <v>88.00471289059257</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.715923571941904</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>49.86607738572808</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>40.433268064629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>49.50810683683169</v>
+      </c>
+      <c r="M9">
+        <v>40.16469546155219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E10">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F10">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M10">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E11">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F11">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M11">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E12">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F12">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M12">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E13">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F13">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M13">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E14">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F14">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M14">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E15">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F15">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M15">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E16">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F16">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M16">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E17">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F17">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M17">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E18">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F18">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M18">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E19">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F19">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M19">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E20">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F20">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M20">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E21">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F21">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M21">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E22">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F22">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M22">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E23">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F23">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M23">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E24">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F24">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>47.1253257320957</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M24">
+        <v>46.5974553608131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.99180145054201</v>
+        <v>22.82898216954407</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.4194094142853</v>
+        <v>16.90951176184979</v>
       </c>
       <c r="E25">
-        <v>65.04216361147031</v>
+        <v>64.03251879407863</v>
       </c>
       <c r="F25">
-        <v>111.8069346545551</v>
+        <v>109.3229804621987</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.561029505447825</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>58.50882099645325</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>47.1253257320957</v>
+        <v>57.79380322182461</v>
+      </c>
+      <c r="M25">
+        <v>46.5974553608131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.17793962105765</v>
+        <v>7.246630629126255</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.41625469039087</v>
+        <v>14.33171196860309</v>
       </c>
       <c r="E2">
-        <v>46.49560371965675</v>
+        <v>36.73965711029564</v>
       </c>
       <c r="F2">
-        <v>71.02314940320802</v>
+        <v>88.10722204725776</v>
       </c>
       <c r="G2">
-        <v>1.830304232786591</v>
+        <v>1.729360465666726</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>41.84057930808944</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>34.09272666104611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>20.23732044346315</v>
+      </c>
+      <c r="O2">
+        <v>72.18236146710852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.84009329152517</v>
+        <v>6.893046346234864</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.276699354155603</v>
+        <v>12.84758298445003</v>
       </c>
       <c r="E3">
-        <v>42.82502988291475</v>
+        <v>32.77407982767973</v>
       </c>
       <c r="F3">
-        <v>64.03675027856427</v>
+        <v>79.2090860980273</v>
       </c>
       <c r="G3">
-        <v>1.875197486443801</v>
+        <v>1.784778164329241</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>38.40187261650085</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>31.34595609094024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>19.4049023899283</v>
+      </c>
+      <c r="O3">
+        <v>64.86680804731499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.99823852792897</v>
+        <v>6.669007590712815</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.603756909742268</v>
+        <v>11.9913256340784</v>
       </c>
       <c r="E4">
-        <v>40.55534047639259</v>
+        <v>30.51317696573006</v>
       </c>
       <c r="F4">
-        <v>59.88179682255038</v>
+        <v>74.02417954658654</v>
       </c>
       <c r="G4">
-        <v>1.901339707408356</v>
+        <v>1.81532970490301</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>36.27071853655009</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>29.63811954995897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.87747365336566</v>
+      </c>
+      <c r="O4">
+        <v>60.60568150867719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.64881779075816</v>
+        <v>6.576098376390267</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.333429379032617</v>
+        <v>11.64897765160495</v>
       </c>
       <c r="E5">
-        <v>39.62079585261323</v>
+        <v>29.61382804850763</v>
       </c>
       <c r="F5">
-        <v>58.20736205101581</v>
+        <v>71.94270121506918</v>
       </c>
       <c r="G5">
-        <v>1.911764135206099</v>
+        <v>1.827248274225652</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>35.3923996390614</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>28.9331961076477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>18.65875149195255</v>
+      </c>
+      <c r="O5">
+        <v>58.89514609826077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.59038400212971</v>
+        <v>6.560577813400334</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.288713220424162</v>
+        <v>11.5923842064798</v>
       </c>
       <c r="E6">
-        <v>39.46490559044516</v>
+        <v>29.46539045783524</v>
       </c>
       <c r="F6">
-        <v>57.93011599186109</v>
+        <v>71.59819794797389</v>
       </c>
       <c r="G6">
-        <v>1.913484252376419</v>
+        <v>1.829202100736593</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>35.24584644313708</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>28.8155185015158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>18.62221383307308</v>
+      </c>
+      <c r="O6">
+        <v>58.6120357389768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.9935532013413</v>
+        <v>6.667760919611804</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.600098385214604</v>
+        <v>11.98668881722302</v>
       </c>
       <c r="E7">
-        <v>40.54278187162334</v>
+        <v>30.50097943511907</v>
       </c>
       <c r="F7">
-        <v>59.85915486532464</v>
+        <v>73.99601752086251</v>
       </c>
       <c r="G7">
-        <v>1.901481082440557</v>
+        <v>1.815492269075424</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>36.25891843647115</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>29.62865293354056</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.87453879493521</v>
+      </c>
+      <c r="O7">
+        <v>60.58253822930331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.72000393731919</v>
+        <v>7.12622788820463</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.01570604566729</v>
+        <v>13.80262271817283</v>
       </c>
       <c r="E8">
-        <v>45.2291753424626</v>
+        <v>35.31823407690639</v>
       </c>
       <c r="F8">
-        <v>68.57506403126573</v>
+        <v>84.94971473300095</v>
       </c>
       <c r="G8">
-        <v>1.84617287190683</v>
+        <v>1.749469801164844</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>40.65547968240402</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>33.14745076142654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>19.95386594323661</v>
+      </c>
+      <c r="O8">
+        <v>69.5858372582486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.03911464960582</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>13.23760199256285</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E9">
-        <v>54.75620371328903</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F9">
-        <v>88.00471289059257</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G9">
-        <v>1.715923571941904</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>49.50810683683169</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>40.16469546155219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O9">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E10">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F10">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G10">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O10">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E11">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F11">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G11">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O11">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E12">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F12">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G12">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O12">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E13">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F13">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G13">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O13">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E14">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F14">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G14">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O14">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E15">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F15">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G15">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O15">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E16">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F16">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G16">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O16">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E17">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F17">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G17">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O17">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E18">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F18">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G18">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O18">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E19">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F19">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G19">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O19">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E20">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F20">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G20">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O20">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E21">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F21">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G21">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O21">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E22">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F22">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G22">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O22">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E23">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F23">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G23">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O23">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E24">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F24">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G24">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>46.5974553608131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O24">
+        <v>94.69910453543909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.82898216954407</v>
+        <v>7.965389323045679</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.90951176184979</v>
+        <v>19.09373430072921</v>
       </c>
       <c r="E25">
-        <v>64.03251879407863</v>
+        <v>50.19712024148585</v>
       </c>
       <c r="F25">
-        <v>109.3229804621987</v>
+        <v>115.4102312513162</v>
       </c>
       <c r="G25">
-        <v>1.561029505447825</v>
+        <v>1.532365930280623</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>57.79380322182461</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>46.5974553608131</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>21.92909527242062</v>
+      </c>
+      <c r="O25">
+        <v>94.69910453543909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.246630629126255</v>
+        <v>12.2235889772956</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.33171196860309</v>
+        <v>5.510376248717376</v>
       </c>
       <c r="E2">
-        <v>36.73965711029564</v>
+        <v>8.314986547459815</v>
       </c>
       <c r="F2">
-        <v>88.10722204725776</v>
+        <v>22.85606320579781</v>
       </c>
       <c r="G2">
-        <v>1.729360465666726</v>
+        <v>2.101346563373949</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.70035028913905</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.326534026616344</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.95911811977215</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.317034348568198</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.23732044346315</v>
+        <v>13.24150544883957</v>
       </c>
       <c r="O2">
-        <v>72.18236146710852</v>
+        <v>16.7553662199586</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893046346234864</v>
+        <v>11.58419801390302</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>12.84758298445003</v>
+        <v>5.433750756217405</v>
       </c>
       <c r="E3">
-        <v>32.77407982767973</v>
+        <v>8.358362981034107</v>
       </c>
       <c r="F3">
-        <v>79.2090860980273</v>
+        <v>22.65013496741312</v>
       </c>
       <c r="G3">
-        <v>1.784778164329241</v>
+        <v>2.10592269400428</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.9149630080751</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.368670387677983</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.18093304643871</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.044336601904395</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.4049023899283</v>
+        <v>13.42547447438991</v>
       </c>
       <c r="O3">
-        <v>64.86680804731499</v>
+        <v>16.69997293556078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.669007590712815</v>
+        <v>11.17656825620892</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>11.9913256340784</v>
+        <v>5.388008525805324</v>
       </c>
       <c r="E4">
-        <v>30.51317696573006</v>
+        <v>8.38749149410258</v>
       </c>
       <c r="F4">
-        <v>74.02417954658654</v>
+        <v>22.53961174137834</v>
       </c>
       <c r="G4">
-        <v>1.81532970490301</v>
+        <v>2.108826544074748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.05523443700166</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.395537821510991</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.67685439244978</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.873994872715921</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.87747365336566</v>
+        <v>13.54124305943948</v>
       </c>
       <c r="O4">
-        <v>60.60568150867719</v>
+        <v>16.67809670290528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576098376390267</v>
+        <v>11.00686131626629</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11.64897765160495</v>
+        <v>5.369713110262632</v>
       </c>
       <c r="E5">
-        <v>29.61382804850763</v>
+        <v>8.399981798343019</v>
       </c>
       <c r="F5">
-        <v>71.94270121506918</v>
+        <v>22.49851279001221</v>
       </c>
       <c r="G5">
-        <v>1.827248274225652</v>
+        <v>2.110033981614398</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.11448304475645</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.406738589547656</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.46486567334459</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.803950669432579</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.65875149195255</v>
+        <v>13.58914225210605</v>
       </c>
       <c r="O5">
-        <v>58.89514609826077</v>
+        <v>16.67214647799118</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560577813400334</v>
+        <v>10.97847067651753</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.5923842064798</v>
+        <v>5.366696471208276</v>
       </c>
       <c r="E6">
-        <v>29.46539045783524</v>
+        <v>8.402093056196112</v>
       </c>
       <c r="F6">
-        <v>71.59819794797389</v>
+        <v>22.49192430385201</v>
       </c>
       <c r="G6">
-        <v>1.829202100736593</v>
+        <v>2.110235943432687</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.12444588390843</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.408613743537145</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.42926940920054</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.79228508835817</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.62221383307308</v>
+        <v>13.59713996729318</v>
       </c>
       <c r="O6">
-        <v>58.6120357389768</v>
+        <v>16.67133488833446</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.667760919611804</v>
+        <v>11.17429380970052</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>11.98668881722302</v>
+        <v>5.387760369582486</v>
       </c>
       <c r="E7">
-        <v>30.50097943511907</v>
+        <v>8.387657440889029</v>
       </c>
       <c r="F7">
-        <v>73.99601752086251</v>
+        <v>22.53904160248322</v>
       </c>
       <c r="G7">
-        <v>1.815492269075424</v>
+        <v>2.108842729873851</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.05602509804618</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.395687856064837</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.67402199584653</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.873052635321937</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.87453879493521</v>
+        <v>13.54188609865087</v>
       </c>
       <c r="O7">
-        <v>60.58253822930331</v>
+        <v>16.6780045702757</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.12622788820463</v>
+        <v>12.00635101934936</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.80262271817283</v>
+        <v>5.483694751899073</v>
       </c>
       <c r="E8">
-        <v>35.31823407690639</v>
+        <v>8.329420414828945</v>
       </c>
       <c r="F8">
-        <v>84.94971473300095</v>
+        <v>22.78172083683953</v>
       </c>
       <c r="G8">
-        <v>1.749469801164844</v>
+        <v>2.102905153384603</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.77255350257511</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.340857072472758</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.69626762836755</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.223668818696624</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.95386594323661</v>
+        <v>13.30436424466262</v>
       </c>
       <c r="O8">
-        <v>69.5858372582486</v>
+        <v>16.73369659407495</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.965389323045679</v>
+        <v>13.51204859626666</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>19.09373430072921</v>
+        <v>5.681439521503165</v>
       </c>
       <c r="E9">
-        <v>50.19712024148585</v>
+        <v>8.235356157530752</v>
       </c>
       <c r="F9">
-        <v>115.4102312513162</v>
+        <v>23.38623436487127</v>
       </c>
       <c r="G9">
-        <v>1.532365930280623</v>
+        <v>2.09198745063217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.28656471646771</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.241152852241778</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.49170083300662</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.884238003818772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.92909527242062</v>
+        <v>12.86014025459566</v>
       </c>
       <c r="O9">
-        <v>94.69910453543909</v>
+        <v>16.9429072660049</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.965389323045679</v>
+        <v>14.53458294513806</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>19.09373430072921</v>
+        <v>5.83157425484143</v>
       </c>
       <c r="E10">
-        <v>50.19712024148585</v>
+        <v>8.17901626289199</v>
       </c>
       <c r="F10">
-        <v>115.4102312513162</v>
+        <v>23.91133201657319</v>
       </c>
       <c r="G10">
-        <v>1.532365930280623</v>
+        <v>2.0843784580442</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.97588417331088</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.172552621778222</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.68310095092395</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.348556680275285</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.92909527242062</v>
+        <v>12.54581638534256</v>
       </c>
       <c r="O10">
-        <v>94.69910453543909</v>
+        <v>17.16236773902423</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.965389323045679</v>
+        <v>14.98059331538583</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.09373430072921</v>
+        <v>5.900714063767061</v>
       </c>
       <c r="E11">
-        <v>50.19712024148585</v>
+        <v>8.156272831522529</v>
       </c>
       <c r="F11">
-        <v>115.4102312513162</v>
+        <v>24.16816645780911</v>
       </c>
       <c r="G11">
-        <v>1.532365930280623</v>
+        <v>2.08099940973089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>15.84555565044823</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.142330084398063</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.19751513977572</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.554466111666748</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.92909527242062</v>
+        <v>12.40518607629814</v>
       </c>
       <c r="O11">
-        <v>94.69910453543909</v>
+        <v>17.27742147064657</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.965389323045679</v>
+        <v>15.14667434739052</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.09373430072921</v>
+        <v>5.926999173103519</v>
       </c>
       <c r="E12">
-        <v>50.19712024148585</v>
+        <v>8.148085573228229</v>
       </c>
       <c r="F12">
-        <v>115.4102312513162</v>
+        <v>24.26802573141965</v>
       </c>
       <c r="G12">
-        <v>1.532365930280623</v>
+        <v>2.079731081371278</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>15.79787340702691</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.131025168478484</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.38836702839019</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.631623802925352</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.92909527242062</v>
+        <v>12.35225050901012</v>
       </c>
       <c r="O12">
-        <v>94.69910453543909</v>
+        <v>17.32324831300913</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.965389323045679</v>
+        <v>15.11103174770988</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.09373430072921</v>
+        <v>5.92133388455767</v>
       </c>
       <c r="E13">
-        <v>50.19712024148585</v>
+        <v>8.149829767576211</v>
       </c>
       <c r="F13">
-        <v>115.4102312513162</v>
+        <v>24.24640330749359</v>
       </c>
       <c r="G13">
-        <v>1.532365930280623</v>
+        <v>2.080003748320678</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>15.80806684944959</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.133453699762496</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.34743880176353</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.615043529325597</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.92909527242062</v>
+        <v>12.36363732762835</v>
       </c>
       <c r="O13">
-        <v>94.69910453543909</v>
+        <v>17.31327716753339</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.965389323045679</v>
+        <v>14.99431357672097</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.09373430072921</v>
+        <v>5.902874583871221</v>
       </c>
       <c r="E14">
-        <v>50.19712024148585</v>
+        <v>8.155590679225179</v>
       </c>
       <c r="F14">
-        <v>115.4102312513162</v>
+        <v>24.1763297141223</v>
       </c>
       <c r="G14">
-        <v>1.532365930280623</v>
+        <v>2.080894841770517</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>15.84159879273431</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.141397232627227</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.21329559470325</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.560830536870522</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.92909527242062</v>
+        <v>12.4008247838747</v>
       </c>
       <c r="O14">
-        <v>94.69910453543909</v>
+        <v>17.28114602371662</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.965389323045679</v>
+        <v>14.92245241568966</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.09373430072921</v>
+        <v>5.891580671596119</v>
       </c>
       <c r="E15">
-        <v>50.19712024148585</v>
+        <v>8.159175087244448</v>
       </c>
       <c r="F15">
-        <v>115.4102312513162</v>
+        <v>24.13374687468091</v>
       </c>
       <c r="G15">
-        <v>1.532365930280623</v>
+        <v>2.081442108327302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>15.86235836307754</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.146281015842929</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.13061579052698</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.527515886098996</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.92909527242062</v>
+        <v>12.42364396034954</v>
       </c>
       <c r="O15">
-        <v>94.69910453543909</v>
+        <v>17.26176089453232</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.965389323045679</v>
+        <v>14.50504433995357</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>19.09373430072921</v>
+        <v>5.827071227400872</v>
       </c>
       <c r="E16">
-        <v>50.19712024148585</v>
+        <v>8.180561531018421</v>
       </c>
       <c r="F16">
-        <v>115.4102312513162</v>
+        <v>23.89491047795882</v>
       </c>
       <c r="G16">
-        <v>1.532365930280623</v>
+        <v>2.084600893312437</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.98463019700118</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.174547383255176</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.64892955915096</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.334988493017361</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.92909527242062</v>
+        <v>12.55505257784973</v>
       </c>
       <c r="O16">
-        <v>94.69910453543909</v>
+        <v>17.15516104236301</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.965389323045679</v>
+        <v>14.24402629330451</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>19.09373430072921</v>
+        <v>5.787699766161062</v>
       </c>
       <c r="E17">
-        <v>50.19712024148585</v>
+        <v>8.1944276590777</v>
       </c>
       <c r="F17">
-        <v>115.4102312513162</v>
+        <v>23.75300822453841</v>
       </c>
       <c r="G17">
-        <v>1.532365930280623</v>
+        <v>2.086559377928048</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.06251811789754</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.192138641316783</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.34638247413733</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.215479014922566</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>21.92909527242062</v>
+        <v>12.63625670615021</v>
       </c>
       <c r="O17">
-        <v>94.69910453543909</v>
+        <v>17.09371476642445</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.965389323045679</v>
+        <v>14.09209603969128</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19.09373430072921</v>
+        <v>5.765134704867262</v>
       </c>
       <c r="E18">
-        <v>50.19712024148585</v>
+        <v>8.202674080087535</v>
       </c>
       <c r="F18">
-        <v>115.4102312513162</v>
+        <v>23.67308006399407</v>
       </c>
       <c r="G18">
-        <v>1.532365930280623</v>
+        <v>2.087693632359004</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.10834695530306</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.202349399262876</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.16976989490511</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.146242914568532</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.92909527242062</v>
+        <v>12.68318635339413</v>
       </c>
       <c r="O18">
-        <v>94.69910453543909</v>
+        <v>17.05980117652241</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.965389323045679</v>
+        <v>14.04034808837911</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>19.09373430072921</v>
+        <v>5.757508917467772</v>
       </c>
       <c r="E19">
-        <v>50.19712024148585</v>
+        <v>8.20551241698824</v>
       </c>
       <c r="F19">
-        <v>115.4102312513162</v>
+        <v>23.64630741275374</v>
       </c>
       <c r="G19">
-        <v>1.532365930280623</v>
+        <v>2.088079026198104</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.12403811416959</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.205822568089371</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.10952569659398</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.122717057100994</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.92909527242062</v>
+        <v>12.69911487664932</v>
       </c>
       <c r="O19">
-        <v>94.69910453543909</v>
+        <v>17.04856179701339</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.965389323045679</v>
+        <v>14.27199884645399</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>19.09373430072921</v>
+        <v>5.791882739262358</v>
       </c>
       <c r="E20">
-        <v>50.19712024148585</v>
+        <v>8.192923467290798</v>
       </c>
       <c r="F20">
-        <v>115.4102312513162</v>
+        <v>23.76793887520786</v>
       </c>
       <c r="G20">
-        <v>1.532365930280623</v>
+        <v>2.086350092282175</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.05411962467222</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.190256437555291</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.37885764414195</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.228252886961627</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>21.92909527242062</v>
+        <v>12.62758943774792</v>
       </c>
       <c r="O20">
-        <v>94.69910453543909</v>
+        <v>17.10010744467561</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.965389323045679</v>
+        <v>15.02867329118542</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.09373430072921</v>
+        <v>5.908293861675171</v>
       </c>
       <c r="E21">
-        <v>50.19712024148585</v>
+        <v>8.153886936542499</v>
       </c>
       <c r="F21">
-        <v>115.4102312513162</v>
+        <v>24.19684130048564</v>
       </c>
       <c r="G21">
-        <v>1.532365930280623</v>
+        <v>2.080632805768421</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>15.83170357150908</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.139060247334307</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.25280362096922</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.576776717038125</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.92909527242062</v>
+        <v>12.38989346558059</v>
       </c>
       <c r="O21">
-        <v>94.69910453543909</v>
+        <v>17.29052188869179</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.965389323045679</v>
+        <v>15.50678766192289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>19.09373430072921</v>
+        <v>5.984969950691235</v>
       </c>
       <c r="E22">
-        <v>50.19712024148585</v>
+        <v>8.130857723240389</v>
       </c>
       <c r="F22">
-        <v>115.4102312513162</v>
+        <v>24.49232313360703</v>
       </c>
       <c r="G22">
-        <v>1.532365930280623</v>
+        <v>2.076961466099898</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>15.69612472012141</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.106414038532877</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.80099190794495</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.799784320477166</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>21.92909527242062</v>
+        <v>12.23638896332986</v>
       </c>
       <c r="O22">
-        <v>94.69910453543909</v>
+        <v>17.42816246717824</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.965389323045679</v>
+        <v>15.25312707714803</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.09373430072921</v>
+        <v>5.943997785812771</v>
       </c>
       <c r="E23">
-        <v>50.19712024148585</v>
+        <v>8.142918108359897</v>
       </c>
       <c r="F23">
-        <v>115.4102312513162</v>
+        <v>24.33322622544983</v>
       </c>
       <c r="G23">
-        <v>1.532365930280623</v>
+        <v>2.078915165117107</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>15.76755925342034</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.123764098089685</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.51050948335403</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.681212635031986</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92909527242062</v>
+        <v>12.31815569410607</v>
       </c>
       <c r="O23">
-        <v>94.69910453543909</v>
+        <v>17.35347185851411</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.965389323045679</v>
+        <v>14.25935826728619</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>19.09373430072921</v>
+        <v>5.789991397366918</v>
       </c>
       <c r="E24">
-        <v>50.19712024148585</v>
+        <v>8.193602657847977</v>
       </c>
       <c r="F24">
-        <v>115.4102312513162</v>
+        <v>23.7611835797103</v>
       </c>
       <c r="G24">
-        <v>1.532365930280623</v>
+        <v>2.086444684439612</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.05791331942035</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.191107078642389</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.36418395066861</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.222479461563433</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21.92909527242062</v>
+        <v>12.63150714724741</v>
       </c>
       <c r="O24">
-        <v>94.69910453543909</v>
+        <v>17.09721291995591</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.965389323045679</v>
+        <v>13.11901170961683</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>19.09373430072921</v>
+        <v>5.627018802945319</v>
       </c>
       <c r="E25">
-        <v>50.19712024148585</v>
+        <v>8.258597765899836</v>
       </c>
       <c r="F25">
-        <v>115.4102312513162</v>
+        <v>23.20862996596363</v>
       </c>
       <c r="G25">
-        <v>1.532365930280623</v>
+        <v>2.094866306007869</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.41018815819036</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.267300182202979</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.02843827138483</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.708934341661497</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.92909527242062</v>
+        <v>12.9781169886586</v>
       </c>
       <c r="O25">
-        <v>94.69910453543909</v>
+        <v>16.87509379217331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.2235889772956</v>
+        <v>14.23672555474949</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.510376248717376</v>
+        <v>8.967251477545098</v>
       </c>
       <c r="E2">
-        <v>8.314986547459815</v>
+        <v>14.01533542610956</v>
       </c>
       <c r="F2">
-        <v>22.85606320579781</v>
+        <v>34.48826144649518</v>
       </c>
       <c r="G2">
-        <v>2.101346563373949</v>
+        <v>3.666989002550985</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.70035028913905</v>
+        <v>27.25246170100857</v>
       </c>
       <c r="J2">
-        <v>6.326534026616344</v>
+        <v>10.54649845162567</v>
       </c>
       <c r="K2">
-        <v>12.95911811977215</v>
+        <v>10.44298049628918</v>
       </c>
       <c r="L2">
-        <v>7.317034348568198</v>
+        <v>10.34638984231915</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.24150544883957</v>
+        <v>20.29987755906077</v>
       </c>
       <c r="O2">
-        <v>16.7553662199586</v>
+        <v>26.1098727306632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.58419801390302</v>
+        <v>14.11317823058214</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.433750756217405</v>
+        <v>8.970603754623804</v>
       </c>
       <c r="E3">
-        <v>8.358362981034107</v>
+        <v>14.0443047989054</v>
       </c>
       <c r="F3">
-        <v>22.65013496741312</v>
+        <v>34.5560757195231</v>
       </c>
       <c r="G3">
-        <v>2.10592269400428</v>
+        <v>3.668778695742112</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.9149630080751</v>
+        <v>27.35228124614035</v>
       </c>
       <c r="J3">
-        <v>6.368670387677983</v>
+        <v>10.56319261295698</v>
       </c>
       <c r="K3">
-        <v>12.18093304643871</v>
+        <v>10.21792051646982</v>
       </c>
       <c r="L3">
-        <v>7.044336601904395</v>
+        <v>10.31479671890644</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.42547447438991</v>
+        <v>20.35700642307954</v>
       </c>
       <c r="O3">
-        <v>16.69997293556078</v>
+        <v>26.17576803935464</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.17656825620892</v>
+        <v>14.03904805365975</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.388008525805324</v>
+        <v>8.973667341000587</v>
       </c>
       <c r="E4">
-        <v>8.38749149410258</v>
+        <v>14.06335448924256</v>
       </c>
       <c r="F4">
-        <v>22.53961174137834</v>
+        <v>34.60460789323179</v>
       </c>
       <c r="G4">
-        <v>2.108826544074748</v>
+        <v>3.669937060898431</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.05523443700166</v>
+        <v>27.41749553706517</v>
       </c>
       <c r="J4">
-        <v>6.395537821510991</v>
+        <v>10.57400776149459</v>
       </c>
       <c r="K4">
-        <v>11.67685439244978</v>
+        <v>10.0786856767158</v>
       </c>
       <c r="L4">
-        <v>6.873994872715921</v>
+        <v>10.29678191591949</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.54124305943948</v>
+        <v>20.39377507221801</v>
       </c>
       <c r="O4">
-        <v>16.67809670290528</v>
+        <v>26.2210937188578</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.00686131626629</v>
+        <v>14.00930252456749</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.369713110262632</v>
+        <v>8.975169338371064</v>
       </c>
       <c r="E5">
-        <v>8.399981798343019</v>
+        <v>14.07143547055514</v>
       </c>
       <c r="F5">
-        <v>22.49851279001221</v>
+        <v>34.62611694461557</v>
       </c>
       <c r="G5">
-        <v>2.110033981614398</v>
+        <v>3.670424108173057</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.11448304475645</v>
+        <v>27.44505877512615</v>
       </c>
       <c r="J5">
-        <v>6.406738589547656</v>
+        <v>10.57855744958474</v>
       </c>
       <c r="K5">
-        <v>11.46486567334459</v>
+        <v>10.02176177651072</v>
       </c>
       <c r="L5">
-        <v>6.803950669432579</v>
+        <v>10.28979367334398</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.58914225210605</v>
+        <v>20.40918508657609</v>
       </c>
       <c r="O5">
-        <v>16.67214647799118</v>
+        <v>26.24078650700488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97847067651753</v>
+        <v>14.00439209075949</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.366696471208276</v>
+        <v>8.975434080115392</v>
       </c>
       <c r="E6">
-        <v>8.402093056196112</v>
+        <v>14.07279654137198</v>
       </c>
       <c r="F6">
-        <v>22.49192430385201</v>
+        <v>34.62979304504942</v>
       </c>
       <c r="G6">
-        <v>2.110235943432687</v>
+        <v>3.670505889557687</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.12444588390843</v>
+        <v>27.44969532521538</v>
       </c>
       <c r="J6">
-        <v>6.408613743537145</v>
+        <v>10.57932153548252</v>
       </c>
       <c r="K6">
-        <v>11.42926940920054</v>
+        <v>10.01230080953013</v>
       </c>
       <c r="L6">
-        <v>6.79228508835817</v>
+        <v>10.28865473877376</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.59713996729318</v>
+        <v>20.41176970212846</v>
       </c>
       <c r="O6">
-        <v>16.67133488833446</v>
+        <v>26.24413025695732</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17429380970052</v>
+        <v>14.03864498283001</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.387760369582486</v>
+        <v>8.973686569802835</v>
       </c>
       <c r="E7">
-        <v>8.387657440889029</v>
+        <v>14.06346218343291</v>
       </c>
       <c r="F7">
-        <v>22.53904160248322</v>
+        <v>34.60489096239485</v>
       </c>
       <c r="G7">
-        <v>2.108842729873851</v>
+        <v>3.669943568576259</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.05602509804618</v>
+        <v>27.4178632632912</v>
       </c>
       <c r="J7">
-        <v>6.395687856064837</v>
+        <v>10.57406854297837</v>
       </c>
       <c r="K7">
-        <v>11.67402199584653</v>
+        <v>10.07791862250215</v>
       </c>
       <c r="L7">
-        <v>6.873052635321937</v>
+        <v>10.29668623457901</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54188609865087</v>
+        <v>20.39398116861858</v>
       </c>
       <c r="O7">
-        <v>16.6780045702757</v>
+        <v>26.22135435585368</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.00635101934936</v>
+        <v>14.19378504385623</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.483694751899073</v>
+        <v>8.968199176564445</v>
       </c>
       <c r="E8">
-        <v>8.329420414828945</v>
+        <v>14.02506244584103</v>
       </c>
       <c r="F8">
-        <v>22.78172083683953</v>
+        <v>34.51021202095595</v>
       </c>
       <c r="G8">
-        <v>2.102905153384603</v>
+        <v>3.667593769960383</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.77255350257511</v>
+        <v>27.2860655063395</v>
       </c>
       <c r="J8">
-        <v>6.340857072472758</v>
+        <v>10.55213759392025</v>
       </c>
       <c r="K8">
-        <v>12.69626762836755</v>
+        <v>10.36564353842566</v>
       </c>
       <c r="L8">
-        <v>7.223668818696624</v>
+        <v>10.33521250156796</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.30436424466262</v>
+        <v>20.31922528875413</v>
       </c>
       <c r="O8">
-        <v>16.73369659407495</v>
+        <v>26.13158280444996</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.51204859626666</v>
+        <v>14.51044269033805</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.681439521503165</v>
+        <v>8.96537953337285</v>
       </c>
       <c r="E9">
-        <v>8.235356157530752</v>
+        <v>13.95974829855418</v>
       </c>
       <c r="F9">
-        <v>23.38623436487127</v>
+        <v>34.37931358189019</v>
       </c>
       <c r="G9">
-        <v>2.09198745063217</v>
+        <v>3.66345573320217</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.28656471646771</v>
+        <v>27.05870607105241</v>
       </c>
       <c r="J9">
-        <v>6.241152852241778</v>
+        <v>10.51359535138636</v>
       </c>
       <c r="K9">
-        <v>14.49170083300662</v>
+        <v>10.91825023469468</v>
       </c>
       <c r="L9">
-        <v>7.884238003818772</v>
+        <v>10.42150604521359</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.86014025459566</v>
+        <v>20.1859933105383</v>
       </c>
       <c r="O9">
-        <v>16.9429072660049</v>
+        <v>25.99420315220478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.53458294513806</v>
+        <v>14.74890966985767</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.83157425484143</v>
+        <v>8.968099923833172</v>
       </c>
       <c r="E10">
-        <v>8.17901626289199</v>
+        <v>13.91781118878745</v>
       </c>
       <c r="F10">
-        <v>23.91133201657319</v>
+        <v>34.31660325726774</v>
       </c>
       <c r="G10">
-        <v>2.0843784580442</v>
+        <v>3.66069907093279</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.97588417331088</v>
+        <v>26.9105589653655</v>
       </c>
       <c r="J10">
-        <v>6.172552621778222</v>
+        <v>10.48797515320533</v>
       </c>
       <c r="K10">
-        <v>15.68310095092395</v>
+        <v>11.31296828862819</v>
       </c>
       <c r="L10">
-        <v>8.348556680275285</v>
+        <v>10.49112504189588</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.54581638534256</v>
+        <v>20.09617593983311</v>
       </c>
       <c r="O10">
-        <v>17.16236773902423</v>
+        <v>25.91690929084186</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.98059331538583</v>
+        <v>14.85827746997332</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.900714063767061</v>
+        <v>8.970366559375334</v>
       </c>
       <c r="E11">
-        <v>8.156272831522529</v>
+        <v>13.90003807527352</v>
       </c>
       <c r="F11">
-        <v>24.16816645780911</v>
+        <v>34.29534854598297</v>
       </c>
       <c r="G11">
-        <v>2.08099940973089</v>
+        <v>3.659505945010992</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.84555565044823</v>
+        <v>26.84725281004311</v>
       </c>
       <c r="J11">
-        <v>6.142330084398063</v>
+        <v>10.47690018765414</v>
       </c>
       <c r="K11">
-        <v>16.19751513977572</v>
+        <v>11.48927402468421</v>
       </c>
       <c r="L11">
-        <v>8.554466111666748</v>
+        <v>10.52407090050863</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.40518607629814</v>
+        <v>20.05705081547175</v>
       </c>
       <c r="O11">
-        <v>17.27742147064657</v>
+        <v>25.88689144994906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.14667434739052</v>
+        <v>14.8997878291698</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.926999173103519</v>
+        <v>8.97137178466407</v>
       </c>
       <c r="E12">
-        <v>8.148085573228229</v>
+        <v>13.89349476954694</v>
       </c>
       <c r="F12">
-        <v>24.26802573141965</v>
+        <v>34.28834564323945</v>
       </c>
       <c r="G12">
-        <v>2.079731081371278</v>
+        <v>3.659062848773769</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.79787340702691</v>
+        <v>26.82386723182178</v>
       </c>
       <c r="J12">
-        <v>6.131025168478484</v>
+        <v>10.47278936460895</v>
       </c>
       <c r="K12">
-        <v>16.38836702839019</v>
+        <v>11.55550651644599</v>
       </c>
       <c r="L12">
-        <v>8.631623802925352</v>
+        <v>10.53672325099678</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.35225050901012</v>
+        <v>20.04248315059651</v>
       </c>
       <c r="O12">
-        <v>17.32324831300913</v>
+        <v>25.87626484464921</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.11103174770988</v>
+        <v>14.89084411535997</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.92133388455767</v>
+        <v>8.971148775901709</v>
       </c>
       <c r="E13">
-        <v>8.149829767576211</v>
+        <v>13.89489568024863</v>
       </c>
       <c r="F13">
-        <v>24.24640330749359</v>
+        <v>34.28980733600621</v>
       </c>
       <c r="G13">
-        <v>2.080003748320678</v>
+        <v>3.659157890550766</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.80806684944959</v>
+        <v>26.82887763238018</v>
       </c>
       <c r="J13">
-        <v>6.133453699762496</v>
+        <v>10.47367101679241</v>
       </c>
       <c r="K13">
-        <v>16.34743880176353</v>
+        <v>11.54126671972917</v>
       </c>
       <c r="L13">
-        <v>8.615043529325597</v>
+        <v>10.53399060623404</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.36363732762835</v>
+        <v>20.04560953730825</v>
       </c>
       <c r="O13">
-        <v>17.31327716753339</v>
+        <v>25.87852052830756</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.99431357672097</v>
+        <v>14.86169083116541</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.902874583871221</v>
+        <v>8.970446322196128</v>
       </c>
       <c r="E14">
-        <v>8.155590679225179</v>
+        <v>13.89949600932625</v>
       </c>
       <c r="F14">
-        <v>24.1763297141223</v>
+        <v>34.29475145512401</v>
       </c>
       <c r="G14">
-        <v>2.080894841770517</v>
+        <v>3.659469316800104</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.84159879273431</v>
+        <v>26.84531710148736</v>
       </c>
       <c r="J14">
-        <v>6.141397232627227</v>
+        <v>10.47656032577917</v>
       </c>
       <c r="K14">
-        <v>16.21329559470325</v>
+        <v>11.49473399131244</v>
       </c>
       <c r="L14">
-        <v>8.560830536870522</v>
+        <v>10.52510832117455</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.4008247838747</v>
+        <v>20.0558473572841</v>
       </c>
       <c r="O14">
-        <v>17.28114602371662</v>
+        <v>25.88600234765442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.92245241568966</v>
+        <v>14.84384503048369</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.891580671596119</v>
+        <v>8.970035146500571</v>
       </c>
       <c r="E15">
-        <v>8.159175087244448</v>
+        <v>13.90233817808537</v>
       </c>
       <c r="F15">
-        <v>24.13374687468091</v>
+        <v>34.29791605728307</v>
       </c>
       <c r="G15">
-        <v>2.081442108327302</v>
+        <v>3.659661208042067</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.86235836307754</v>
+        <v>26.85546319080506</v>
       </c>
       <c r="J15">
-        <v>6.146281015842929</v>
+        <v>10.47834091315618</v>
       </c>
       <c r="K15">
-        <v>16.13061579052698</v>
+        <v>11.46616045320332</v>
       </c>
       <c r="L15">
-        <v>8.527515886098996</v>
+        <v>10.51969043505952</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.42364396034954</v>
+        <v>20.06215060526262</v>
       </c>
       <c r="O15">
-        <v>17.26176089453232</v>
+        <v>25.89068163579973</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.50504433995357</v>
+        <v>14.7417773104553</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.827071227400872</v>
+        <v>8.967972410754568</v>
       </c>
       <c r="E16">
-        <v>8.180561531018421</v>
+        <v>13.91899890050142</v>
       </c>
       <c r="F16">
-        <v>23.89491047795882</v>
+        <v>34.31813865558397</v>
       </c>
       <c r="G16">
-        <v>2.084600893312437</v>
+        <v>3.660778266272945</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.98463019700118</v>
+        <v>26.91477835661884</v>
       </c>
       <c r="J16">
-        <v>6.174547383255176</v>
+        <v>10.48871056537327</v>
       </c>
       <c r="K16">
-        <v>15.64892955915096</v>
+        <v>11.30137535696817</v>
       </c>
       <c r="L16">
-        <v>8.334988493017361</v>
+        <v>10.48899703297563</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.55505257784973</v>
+        <v>20.0987676445063</v>
       </c>
       <c r="O16">
-        <v>17.15516104236301</v>
+        <v>25.91897460613979</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24402629330451</v>
+        <v>14.67936631265335</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.787699766161062</v>
+        <v>8.966969815511058</v>
       </c>
       <c r="E17">
-        <v>8.1944276590777</v>
+        <v>13.92955336803716</v>
       </c>
       <c r="F17">
-        <v>23.75300822453841</v>
+        <v>34.33240738056265</v>
       </c>
       <c r="G17">
-        <v>2.086559377928048</v>
+        <v>3.6614791117889</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.06251811789754</v>
+        <v>26.95221257399345</v>
       </c>
       <c r="J17">
-        <v>6.192138641316783</v>
+        <v>10.49522026144001</v>
       </c>
       <c r="K17">
-        <v>15.34638247413733</v>
+        <v>11.19940567398531</v>
       </c>
       <c r="L17">
-        <v>8.215479014922566</v>
+        <v>10.47048949411973</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.63625670615021</v>
+        <v>20.12167417452119</v>
       </c>
       <c r="O17">
-        <v>17.09371476642445</v>
+        <v>25.9376494768736</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.09209603969128</v>
+        <v>14.64355468203413</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.765134704867262</v>
+        <v>8.966490083071337</v>
       </c>
       <c r="E18">
-        <v>8.202674080087535</v>
+        <v>13.93574681817652</v>
       </c>
       <c r="F18">
-        <v>23.67308006399407</v>
+        <v>34.34129892487377</v>
       </c>
       <c r="G18">
-        <v>2.087693632359004</v>
+        <v>3.661887953658605</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.10834695530306</v>
+        <v>26.97412843812372</v>
       </c>
       <c r="J18">
-        <v>6.202349399262876</v>
+        <v>10.49901905968079</v>
       </c>
       <c r="K18">
-        <v>15.16976989490511</v>
+        <v>11.14045265902537</v>
       </c>
       <c r="L18">
-        <v>8.146242914568532</v>
+        <v>10.45996496818322</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.68318635339413</v>
+        <v>20.13501260934049</v>
       </c>
       <c r="O18">
-        <v>17.05980117652241</v>
+        <v>25.94887485998343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.04034808837911</v>
+        <v>14.63144516168926</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.757508917467772</v>
+        <v>8.966344334558091</v>
       </c>
       <c r="E19">
-        <v>8.20551241698824</v>
+        <v>13.9378649222852</v>
       </c>
       <c r="F19">
-        <v>23.64630741275374</v>
+        <v>34.34442701384764</v>
       </c>
       <c r="G19">
-        <v>2.088079026198104</v>
+        <v>3.662027366600292</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.12403811416959</v>
+        <v>26.98161486249029</v>
       </c>
       <c r="J19">
-        <v>6.205822568089371</v>
+        <v>10.50031465456587</v>
       </c>
       <c r="K19">
-        <v>15.10952569659398</v>
+        <v>11.12044216845253</v>
       </c>
       <c r="L19">
-        <v>8.122717057100994</v>
+        <v>10.45642245336216</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69911487664932</v>
+        <v>20.13955683748983</v>
       </c>
       <c r="O19">
-        <v>17.04856179701339</v>
+        <v>25.95275869585242</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.27199884645399</v>
+        <v>14.68600145459436</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.791882739262358</v>
+        <v>8.967066518898353</v>
       </c>
       <c r="E20">
-        <v>8.192923467290798</v>
+        <v>13.92841712179209</v>
       </c>
       <c r="F20">
-        <v>23.76793887520786</v>
+        <v>34.33081760048232</v>
       </c>
       <c r="G20">
-        <v>2.086350092282175</v>
+        <v>3.661403912436714</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.05411962467222</v>
+        <v>26.94818782769038</v>
       </c>
       <c r="J20">
-        <v>6.190256437555291</v>
+        <v>10.49452164551351</v>
       </c>
       <c r="K20">
-        <v>15.37885764414195</v>
+        <v>11.21029232311772</v>
       </c>
       <c r="L20">
-        <v>8.228252886961627</v>
+        <v>10.4724472296839</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.62758943774792</v>
+        <v>20.11921885200349</v>
       </c>
       <c r="O20">
-        <v>17.10010744467561</v>
+        <v>25.93561139653804</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.02867329118542</v>
+        <v>14.87025153373206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.908293861675171</v>
+        <v>8.97064867199672</v>
       </c>
       <c r="E21">
-        <v>8.153886936542499</v>
+        <v>13.89813971091369</v>
       </c>
       <c r="F21">
-        <v>24.19684130048564</v>
+        <v>34.29327086694436</v>
       </c>
       <c r="G21">
-        <v>2.080632805768421</v>
+        <v>3.659377607179734</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.83170357150908</v>
+        <v>26.8404725019052</v>
       </c>
       <c r="J21">
-        <v>6.139060247334307</v>
+        <v>10.47570941513943</v>
       </c>
       <c r="K21">
-        <v>16.25280362096922</v>
+        <v>11.50841666277519</v>
       </c>
       <c r="L21">
-        <v>8.576776717038125</v>
+        <v>10.5277125311672</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.38989346558059</v>
+        <v>20.05283353456537</v>
       </c>
       <c r="O21">
-        <v>17.29052188869179</v>
+        <v>25.88378465293018</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.50678766192289</v>
+        <v>14.99120924701577</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.984969950691235</v>
+        <v>8.973845516279223</v>
       </c>
       <c r="E22">
-        <v>8.130857723240389</v>
+        <v>13.8794413123689</v>
       </c>
       <c r="F22">
-        <v>24.49232313360703</v>
+        <v>34.27482729966754</v>
       </c>
       <c r="G22">
-        <v>2.076961466099898</v>
+        <v>3.658104076106921</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.69612472012141</v>
+        <v>26.77349606954862</v>
       </c>
       <c r="J22">
-        <v>6.106414038532877</v>
+        <v>10.46389831570059</v>
       </c>
       <c r="K22">
-        <v>16.80099190794495</v>
+        <v>11.70013896579253</v>
       </c>
       <c r="L22">
-        <v>8.799784320477166</v>
+        <v>10.56485679406882</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.23638896332986</v>
+        <v>20.01089293283754</v>
       </c>
       <c r="O22">
-        <v>17.42816246717824</v>
+        <v>25.85422936022916</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25312707714803</v>
+        <v>14.92661316589489</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.943997785812771</v>
+        <v>8.972061376878832</v>
       </c>
       <c r="E23">
-        <v>8.142918108359897</v>
+        <v>13.88932148440833</v>
       </c>
       <c r="F23">
-        <v>24.33322622544983</v>
+        <v>34.28411335724812</v>
       </c>
       <c r="G23">
-        <v>2.078915165117107</v>
+        <v>3.658779151257582</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.76755925342034</v>
+        <v>26.8089297420823</v>
       </c>
       <c r="J23">
-        <v>6.123764098089685</v>
+        <v>10.47015796964605</v>
       </c>
       <c r="K23">
-        <v>16.51050948335403</v>
+        <v>11.59811820005712</v>
       </c>
       <c r="L23">
-        <v>8.681212635031986</v>
+        <v>10.54494076544865</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.31815569410607</v>
+        <v>20.03314545837976</v>
       </c>
       <c r="O23">
-        <v>17.35347185851411</v>
+        <v>25.86960837533104</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.25935826728619</v>
+        <v>14.6830014886306</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.789991397366918</v>
+        <v>8.967022498105063</v>
       </c>
       <c r="E24">
-        <v>8.193602657847977</v>
+        <v>13.92893042762753</v>
       </c>
       <c r="F24">
-        <v>23.7611835797103</v>
+        <v>34.33153419617031</v>
       </c>
       <c r="G24">
-        <v>2.086444684439612</v>
+        <v>3.661437891631652</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.05791331942035</v>
+        <v>26.95000618681379</v>
       </c>
       <c r="J24">
-        <v>6.191107078642389</v>
+        <v>10.49483731442253</v>
       </c>
       <c r="K24">
-        <v>15.36418395066861</v>
+        <v>11.20537148986668</v>
       </c>
       <c r="L24">
-        <v>8.222479461563433</v>
+        <v>10.47156177649872</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63150714724741</v>
+        <v>20.12032837628616</v>
       </c>
       <c r="O24">
-        <v>17.09721291995591</v>
+        <v>25.93653128966769</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.11901170961683</v>
+        <v>14.42362782289627</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.627018802945319</v>
+        <v>8.965297030830088</v>
       </c>
       <c r="E25">
-        <v>8.258597765899836</v>
+        <v>13.97635236142272</v>
       </c>
       <c r="F25">
-        <v>23.20862996596363</v>
+        <v>34.40885281608128</v>
       </c>
       <c r="G25">
-        <v>2.094866306007869</v>
+        <v>3.664525177429988</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.41018815819036</v>
+        <v>27.11689044381743</v>
       </c>
       <c r="J25">
-        <v>6.267300182202979</v>
+        <v>10.52354668871092</v>
       </c>
       <c r="K25">
-        <v>14.02843827138483</v>
+        <v>10.77044749283085</v>
       </c>
       <c r="L25">
-        <v>7.708934341661497</v>
+        <v>10.39704415633026</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.9781169886586</v>
+        <v>20.22061357800364</v>
       </c>
       <c r="O25">
-        <v>16.87509379217331</v>
+        <v>26.02722119989309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.23672555474949</v>
+        <v>12.22358897729559</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.967251477545098</v>
+        <v>5.510376248717477</v>
       </c>
       <c r="E2">
-        <v>14.01533542610956</v>
+        <v>8.314986547459883</v>
       </c>
       <c r="F2">
-        <v>34.48826144649518</v>
+        <v>22.85606320579772</v>
       </c>
       <c r="G2">
-        <v>3.666989002550985</v>
+        <v>2.101346563373814</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.25246170100857</v>
+        <v>16.70035028913896</v>
       </c>
       <c r="J2">
-        <v>10.54649845162567</v>
+        <v>6.326534026616379</v>
       </c>
       <c r="K2">
-        <v>10.44298049628918</v>
+        <v>12.95911811977218</v>
       </c>
       <c r="L2">
-        <v>10.34638984231915</v>
+        <v>7.3170343485682</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.29987755906077</v>
+        <v>13.24150544883951</v>
       </c>
       <c r="O2">
-        <v>26.1098727306632</v>
+        <v>16.75536621995852</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.11317823058214</v>
+        <v>11.58419801390305</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.970603754623804</v>
+        <v>5.43375075621751</v>
       </c>
       <c r="E3">
-        <v>14.0443047989054</v>
+        <v>8.358362981034299</v>
       </c>
       <c r="F3">
-        <v>34.5560757195231</v>
+        <v>22.65013496741297</v>
       </c>
       <c r="G3">
-        <v>3.668778695742112</v>
+        <v>2.105922694004414</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.35228124614035</v>
+        <v>16.91496300807514</v>
       </c>
       <c r="J3">
-        <v>10.56319261295698</v>
+        <v>6.368670387678116</v>
       </c>
       <c r="K3">
-        <v>10.21792051646982</v>
+        <v>12.18093304643877</v>
       </c>
       <c r="L3">
-        <v>10.31479671890644</v>
+        <v>7.044336601904365</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.35700642307954</v>
+        <v>13.42547447438991</v>
       </c>
       <c r="O3">
-        <v>26.17576803935464</v>
+        <v>16.69997293556067</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.03904805365975</v>
+        <v>11.1765682562089</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.973667341000587</v>
+        <v>5.388008525805319</v>
       </c>
       <c r="E4">
-        <v>14.06335448924256</v>
+        <v>8.387491494102518</v>
       </c>
       <c r="F4">
-        <v>34.60460789323179</v>
+        <v>22.53961174137823</v>
       </c>
       <c r="G4">
-        <v>3.669937060898431</v>
+        <v>2.108826544074617</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.41749553706517</v>
+        <v>17.05523443700154</v>
       </c>
       <c r="J4">
-        <v>10.57400776149459</v>
+        <v>6.395537821510891</v>
       </c>
       <c r="K4">
-        <v>10.0786856767158</v>
+        <v>11.67685439244982</v>
       </c>
       <c r="L4">
-        <v>10.29678191591949</v>
+        <v>6.873994872715919</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.39377507221801</v>
+        <v>13.54124305943944</v>
       </c>
       <c r="O4">
-        <v>26.2210937188578</v>
+        <v>16.67809670290516</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.00930252456749</v>
+        <v>11.00686131626625</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.975169338371064</v>
+        <v>5.369713110262641</v>
       </c>
       <c r="E5">
-        <v>14.07143547055514</v>
+        <v>8.399981798343029</v>
       </c>
       <c r="F5">
-        <v>34.62611694461557</v>
+        <v>22.49851279001205</v>
       </c>
       <c r="G5">
-        <v>3.670424108173057</v>
+        <v>2.11003398161453</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.44505877512615</v>
+        <v>17.11448304475635</v>
       </c>
       <c r="J5">
-        <v>10.57855744958474</v>
+        <v>6.406738589547624</v>
       </c>
       <c r="K5">
-        <v>10.02176177651072</v>
+        <v>11.46486567334462</v>
       </c>
       <c r="L5">
-        <v>10.28979367334398</v>
+        <v>6.803950669432568</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.40918508657609</v>
+        <v>13.58914225210598</v>
       </c>
       <c r="O5">
-        <v>26.24078650700488</v>
+        <v>16.67214647799105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.00439209075949</v>
+        <v>10.97847067651757</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.975434080115392</v>
+        <v>5.366696471208505</v>
       </c>
       <c r="E6">
-        <v>14.07279654137198</v>
+        <v>8.402093056196382</v>
       </c>
       <c r="F6">
-        <v>34.62979304504942</v>
+        <v>22.49192430385207</v>
       </c>
       <c r="G6">
-        <v>3.670505889557687</v>
+        <v>2.110235943432285</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>27.44969532521538</v>
+        <v>17.12444588390857</v>
       </c>
       <c r="J6">
-        <v>10.57932153548252</v>
+        <v>6.408613743537314</v>
       </c>
       <c r="K6">
-        <v>10.01230080953013</v>
+        <v>11.42926940920058</v>
       </c>
       <c r="L6">
-        <v>10.28865473877376</v>
+        <v>6.79228508835821</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.41176970212846</v>
+        <v>13.59713996729321</v>
       </c>
       <c r="O6">
-        <v>26.24413025695732</v>
+        <v>16.67133488833441</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03864498283001</v>
+        <v>11.17429380970057</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.973686569802835</v>
+        <v>5.387760369582286</v>
       </c>
       <c r="E7">
-        <v>14.06346218343291</v>
+        <v>8.387657440889031</v>
       </c>
       <c r="F7">
-        <v>34.60489096239485</v>
+        <v>22.53904160248294</v>
       </c>
       <c r="G7">
-        <v>3.669943568576259</v>
+        <v>2.108842729873849</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.4178632632912</v>
+        <v>17.05602509804613</v>
       </c>
       <c r="J7">
-        <v>10.57406854297837</v>
+        <v>6.395687856064939</v>
       </c>
       <c r="K7">
-        <v>10.07791862250215</v>
+        <v>11.67402199584656</v>
       </c>
       <c r="L7">
-        <v>10.29668623457901</v>
+        <v>6.873052635321854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.39398116861858</v>
+        <v>13.54188609865076</v>
       </c>
       <c r="O7">
-        <v>26.22135435585368</v>
+        <v>16.67800457027553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.19378504385623</v>
+        <v>12.00635101934938</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.968199176564445</v>
+        <v>5.483694751899184</v>
       </c>
       <c r="E8">
-        <v>14.02506244584103</v>
+        <v>8.329420414828952</v>
       </c>
       <c r="F8">
-        <v>34.51021202095595</v>
+        <v>22.78172083683953</v>
       </c>
       <c r="G8">
-        <v>3.667593769960383</v>
+        <v>2.102905153384601</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.2860655063395</v>
+        <v>16.77255350257511</v>
       </c>
       <c r="J8">
-        <v>10.55213759392025</v>
+        <v>6.340857072472692</v>
       </c>
       <c r="K8">
-        <v>10.36564353842566</v>
+        <v>12.69626762836756</v>
       </c>
       <c r="L8">
-        <v>10.33521250156796</v>
+        <v>7.223668818696593</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.31922528875413</v>
+        <v>13.30436424466262</v>
       </c>
       <c r="O8">
-        <v>26.13158280444996</v>
+        <v>16.73369659407491</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.51044269033805</v>
+        <v>13.51204859626666</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.96537953337285</v>
+        <v>5.681439521503077</v>
       </c>
       <c r="E9">
-        <v>13.95974829855418</v>
+        <v>8.23535615753082</v>
       </c>
       <c r="F9">
-        <v>34.37931358189019</v>
+        <v>23.38623436487099</v>
       </c>
       <c r="G9">
-        <v>3.66345573320217</v>
+        <v>2.091987450632037</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.05870607105241</v>
+        <v>16.28656471646766</v>
       </c>
       <c r="J9">
-        <v>10.51359535138636</v>
+        <v>6.241152852241876</v>
       </c>
       <c r="K9">
-        <v>10.91825023469468</v>
+        <v>14.49170083300671</v>
       </c>
       <c r="L9">
-        <v>10.42150604521359</v>
+        <v>7.884238003818719</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.1859933105383</v>
+        <v>12.86014025459563</v>
       </c>
       <c r="O9">
-        <v>25.99420315220478</v>
+        <v>16.94290726600477</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.74890966985767</v>
+        <v>14.53458294513808</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.968099923833172</v>
+        <v>5.831574254841524</v>
       </c>
       <c r="E10">
-        <v>13.91781118878745</v>
+        <v>8.179016262891931</v>
       </c>
       <c r="F10">
-        <v>34.31660325726774</v>
+        <v>23.91133201657312</v>
       </c>
       <c r="G10">
-        <v>3.66069907093279</v>
+        <v>2.084378458044066</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>26.9105589653655</v>
+        <v>15.97588417331076</v>
       </c>
       <c r="J10">
-        <v>10.48797515320533</v>
+        <v>6.17255262177819</v>
       </c>
       <c r="K10">
-        <v>11.31296828862819</v>
+        <v>15.68310095092397</v>
       </c>
       <c r="L10">
-        <v>10.49112504189588</v>
+        <v>8.348556680275259</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.09617593983311</v>
+        <v>12.54581638534249</v>
       </c>
       <c r="O10">
-        <v>25.91690929084186</v>
+        <v>17.16236773902413</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.85827746997332</v>
+        <v>14.98059331538584</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.970366559375334</v>
+        <v>5.900714063767181</v>
       </c>
       <c r="E11">
-        <v>13.90003807527352</v>
+        <v>8.156272831522653</v>
       </c>
       <c r="F11">
-        <v>34.29534854598297</v>
+        <v>24.16816645780916</v>
       </c>
       <c r="G11">
-        <v>3.659505945010992</v>
+        <v>2.080999409730754</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.84725281004311</v>
+        <v>15.84555565044824</v>
       </c>
       <c r="J11">
-        <v>10.47690018765414</v>
+        <v>6.142330084398029</v>
       </c>
       <c r="K11">
-        <v>11.48927402468421</v>
+        <v>16.19751513977575</v>
       </c>
       <c r="L11">
-        <v>10.52407090050863</v>
+        <v>8.554466111666748</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.05705081547175</v>
+        <v>12.40518607629814</v>
       </c>
       <c r="O11">
-        <v>25.88689144994906</v>
+        <v>17.27742147064656</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.8997878291698</v>
+        <v>15.14667434739053</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.97137178466407</v>
+        <v>5.926999173103652</v>
       </c>
       <c r="E12">
-        <v>13.89349476954694</v>
+        <v>8.1480855732283</v>
       </c>
       <c r="F12">
-        <v>34.28834564323945</v>
+        <v>24.26802573141967</v>
       </c>
       <c r="G12">
-        <v>3.659062848773769</v>
+        <v>2.07973108137128</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.82386723182178</v>
+        <v>15.79787340702692</v>
       </c>
       <c r="J12">
-        <v>10.47278936460895</v>
+        <v>6.131025168478484</v>
       </c>
       <c r="K12">
-        <v>11.55550651644599</v>
+        <v>16.38836702839023</v>
       </c>
       <c r="L12">
-        <v>10.53672325099678</v>
+        <v>8.631623802925331</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.04248315059651</v>
+        <v>12.35225050901015</v>
       </c>
       <c r="O12">
-        <v>25.87626484464921</v>
+        <v>17.3232483130091</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.89084411535997</v>
+        <v>15.11103174770989</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.971148775901709</v>
+        <v>5.921333884557716</v>
       </c>
       <c r="E13">
-        <v>13.89489568024863</v>
+        <v>8.149829767576279</v>
       </c>
       <c r="F13">
-        <v>34.28980733600621</v>
+        <v>24.2464033074934</v>
       </c>
       <c r="G13">
-        <v>3.659157890550766</v>
+        <v>2.080003748320677</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.82887763238018</v>
+        <v>15.80806684944952</v>
       </c>
       <c r="J13">
-        <v>10.47367101679241</v>
+        <v>6.133453699762565</v>
       </c>
       <c r="K13">
-        <v>11.54126671972917</v>
+        <v>16.34743880176363</v>
       </c>
       <c r="L13">
-        <v>10.53399060623404</v>
+        <v>8.615043529325552</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.04560953730825</v>
+        <v>12.36363732762828</v>
       </c>
       <c r="O13">
-        <v>25.87852052830756</v>
+        <v>17.31327716753323</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.86169083116541</v>
+        <v>14.99431357672097</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.970446322196128</v>
+        <v>5.902874583871215</v>
       </c>
       <c r="E14">
-        <v>13.89949600932625</v>
+        <v>8.155590679225124</v>
       </c>
       <c r="F14">
-        <v>34.29475145512401</v>
+        <v>24.17632971412216</v>
       </c>
       <c r="G14">
-        <v>3.659469316800104</v>
+        <v>2.080894841770652</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.84531710148736</v>
+        <v>15.8415987927342</v>
       </c>
       <c r="J14">
-        <v>10.47656032577917</v>
+        <v>6.141397232627196</v>
       </c>
       <c r="K14">
-        <v>11.49473399131244</v>
+        <v>16.21329559470334</v>
       </c>
       <c r="L14">
-        <v>10.52510832117455</v>
+        <v>8.56083053687049</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.0558473572841</v>
+        <v>12.4008247838746</v>
       </c>
       <c r="O14">
-        <v>25.88600234765442</v>
+        <v>17.28114602371648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.84384503048369</v>
+        <v>14.92245241568969</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.970035146500571</v>
+        <v>5.891580671596237</v>
       </c>
       <c r="E15">
-        <v>13.90233817808537</v>
+        <v>8.159175087244577</v>
       </c>
       <c r="F15">
-        <v>34.29791605728307</v>
+        <v>24.13374687468082</v>
       </c>
       <c r="G15">
-        <v>3.659661208042067</v>
+        <v>2.081442108327302</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.85546319080506</v>
+        <v>15.86235836307748</v>
       </c>
       <c r="J15">
-        <v>10.47834091315618</v>
+        <v>6.146281015842931</v>
       </c>
       <c r="K15">
-        <v>11.46616045320332</v>
+        <v>16.13061579052707</v>
       </c>
       <c r="L15">
-        <v>10.51969043505952</v>
+        <v>8.527515886098977</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.06215060526262</v>
+        <v>12.42364396034951</v>
       </c>
       <c r="O15">
-        <v>25.89068163579973</v>
+        <v>17.26176089453221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.7417773104553</v>
+        <v>14.5050443399536</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.967972410754568</v>
+        <v>5.82707122740089</v>
       </c>
       <c r="E16">
-        <v>13.91899890050142</v>
+        <v>8.180561531018492</v>
       </c>
       <c r="F16">
-        <v>34.31813865558397</v>
+        <v>23.89491047795872</v>
       </c>
       <c r="G16">
-        <v>3.660778266272945</v>
+        <v>2.084600893312437</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>26.91477835661884</v>
+        <v>15.98463019700121</v>
       </c>
       <c r="J16">
-        <v>10.48871056537327</v>
+        <v>6.174547383255244</v>
       </c>
       <c r="K16">
-        <v>11.30137535696817</v>
+        <v>15.64892955915102</v>
       </c>
       <c r="L16">
-        <v>10.48899703297563</v>
+        <v>8.334988493017335</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.0987676445063</v>
+        <v>12.55505257784973</v>
       </c>
       <c r="O16">
-        <v>25.91897460613979</v>
+        <v>17.15516104236291</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.67936631265335</v>
+        <v>14.24402629330449</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.966969815511058</v>
+        <v>5.787699766161069</v>
       </c>
       <c r="E17">
-        <v>13.92955336803716</v>
+        <v>8.194427659077771</v>
       </c>
       <c r="F17">
-        <v>34.33240738056265</v>
+        <v>23.75300822453831</v>
       </c>
       <c r="G17">
-        <v>3.6614791117889</v>
+        <v>2.086559377928048</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>26.95221257399345</v>
+        <v>16.06251811789749</v>
       </c>
       <c r="J17">
-        <v>10.49522026144001</v>
+        <v>6.192138641316851</v>
       </c>
       <c r="K17">
-        <v>11.19940567398531</v>
+        <v>15.34638247413737</v>
       </c>
       <c r="L17">
-        <v>10.47048949411973</v>
+        <v>8.215479014922543</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.12167417452119</v>
+        <v>12.63625670615018</v>
       </c>
       <c r="O17">
-        <v>25.9376494768736</v>
+        <v>17.09371476642436</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.64355468203413</v>
+        <v>14.09209603969125</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.966490083071337</v>
+        <v>5.765134704867357</v>
       </c>
       <c r="E18">
-        <v>13.93574681817652</v>
+        <v>8.202674080087595</v>
       </c>
       <c r="F18">
-        <v>34.34129892487377</v>
+        <v>23.67308006399391</v>
       </c>
       <c r="G18">
-        <v>3.661887953658605</v>
+        <v>2.087693632359004</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.97412843812372</v>
+        <v>16.10834695530299</v>
       </c>
       <c r="J18">
-        <v>10.49901905968079</v>
+        <v>6.202349399262879</v>
       </c>
       <c r="K18">
-        <v>11.14045265902537</v>
+        <v>15.1697698949052</v>
       </c>
       <c r="L18">
-        <v>10.45996496818322</v>
+        <v>8.146242914568459</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.13501260934049</v>
+        <v>12.6831863533941</v>
       </c>
       <c r="O18">
-        <v>25.94887485998343</v>
+        <v>17.05980117652223</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.63144516168926</v>
+        <v>14.04034808837915</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.966344334558091</v>
+        <v>5.757508917467795</v>
       </c>
       <c r="E19">
-        <v>13.9378649222852</v>
+        <v>8.205512416988494</v>
       </c>
       <c r="F19">
-        <v>34.34442701384764</v>
+        <v>23.64630741275372</v>
       </c>
       <c r="G19">
-        <v>3.662027366600292</v>
+        <v>2.088079026198238</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.98161486249029</v>
+        <v>16.12403811416962</v>
       </c>
       <c r="J19">
-        <v>10.50031465456587</v>
+        <v>6.205822568089603</v>
       </c>
       <c r="K19">
-        <v>11.12044216845253</v>
+        <v>15.10952569659404</v>
       </c>
       <c r="L19">
-        <v>10.45642245336216</v>
+        <v>8.122717057101028</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.13955683748983</v>
+        <v>12.69911487664936</v>
       </c>
       <c r="O19">
-        <v>25.95275869585242</v>
+        <v>17.04856179701335</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.68600145459436</v>
+        <v>14.27199884645398</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.967066518898353</v>
+        <v>5.791882739262375</v>
       </c>
       <c r="E20">
-        <v>13.92841712179209</v>
+        <v>8.192923467290866</v>
       </c>
       <c r="F20">
-        <v>34.33081760048232</v>
+        <v>23.7679388752077</v>
       </c>
       <c r="G20">
-        <v>3.661403912436714</v>
+        <v>2.086350092282175</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>26.94818782769038</v>
+        <v>16.05411962467211</v>
       </c>
       <c r="J20">
-        <v>10.49452164551351</v>
+        <v>6.190256437555259</v>
       </c>
       <c r="K20">
-        <v>11.21029232311772</v>
+        <v>15.37885764414199</v>
       </c>
       <c r="L20">
-        <v>10.4724472296839</v>
+        <v>8.228252886961615</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.11921885200349</v>
+        <v>12.62758943774781</v>
       </c>
       <c r="O20">
-        <v>25.93561139653804</v>
+        <v>17.10010744467548</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.87025153373206</v>
+        <v>15.02867329118542</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.97064867199672</v>
+        <v>5.908293861675356</v>
       </c>
       <c r="E21">
-        <v>13.89813971091369</v>
+        <v>8.153886936542685</v>
       </c>
       <c r="F21">
-        <v>34.29327086694436</v>
+        <v>24.19684130048557</v>
       </c>
       <c r="G21">
-        <v>3.659377607179734</v>
+        <v>2.080632805768821</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.8404725019052</v>
+        <v>15.83170357150902</v>
       </c>
       <c r="J21">
-        <v>10.47570941513943</v>
+        <v>6.139060247334373</v>
       </c>
       <c r="K21">
-        <v>11.50841666277519</v>
+        <v>16.25280362096931</v>
       </c>
       <c r="L21">
-        <v>10.5277125311672</v>
+        <v>8.576776717038118</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.05283353456537</v>
+        <v>12.38989346558052</v>
       </c>
       <c r="O21">
-        <v>25.88378465293018</v>
+        <v>17.29052188869167</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.99120924701577</v>
+        <v>15.50678766192289</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.973845516279223</v>
+        <v>5.984969950691288</v>
       </c>
       <c r="E22">
-        <v>13.8794413123689</v>
+        <v>8.130857723240394</v>
       </c>
       <c r="F22">
-        <v>34.27482729966754</v>
+        <v>24.49232313360694</v>
       </c>
       <c r="G22">
-        <v>3.658104076106921</v>
+        <v>2.076961466099764</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.77349606954862</v>
+        <v>15.69612472012127</v>
       </c>
       <c r="J22">
-        <v>10.46389831570059</v>
+        <v>6.106414038532811</v>
       </c>
       <c r="K22">
-        <v>11.70013896579253</v>
+        <v>16.80099190794501</v>
       </c>
       <c r="L22">
-        <v>10.56485679406882</v>
+        <v>8.79978432047716</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.01089293283754</v>
+        <v>12.23638896332979</v>
       </c>
       <c r="O22">
-        <v>25.85422936022916</v>
+        <v>17.42816246717816</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.92661316589489</v>
+        <v>15.25312707714808</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.972061376878832</v>
+        <v>5.943997785812828</v>
       </c>
       <c r="E23">
-        <v>13.88932148440833</v>
+        <v>8.142918108359899</v>
       </c>
       <c r="F23">
-        <v>34.28411335724812</v>
+        <v>24.33322622544972</v>
       </c>
       <c r="G23">
-        <v>3.658779151257582</v>
+        <v>2.078915165116973</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.8089297420823</v>
+        <v>15.76755925342032</v>
       </c>
       <c r="J23">
-        <v>10.47015796964605</v>
+        <v>6.123764098089722</v>
       </c>
       <c r="K23">
-        <v>11.59811820005712</v>
+        <v>16.51050948335408</v>
       </c>
       <c r="L23">
-        <v>10.54494076544865</v>
+        <v>8.681212635031962</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.03314545837976</v>
+        <v>12.318155694106</v>
       </c>
       <c r="O23">
-        <v>25.86960837533104</v>
+        <v>17.35347185851401</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6830014886306</v>
+        <v>14.25935826728616</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.967022498105063</v>
+        <v>5.789991397366935</v>
       </c>
       <c r="E24">
-        <v>13.92893042762753</v>
+        <v>8.193602657847986</v>
       </c>
       <c r="F24">
-        <v>34.33153419617031</v>
+        <v>23.76118357971001</v>
       </c>
       <c r="G24">
-        <v>3.661437891631652</v>
+        <v>2.08644468443948</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>26.95000618681379</v>
+        <v>16.05791331942021</v>
       </c>
       <c r="J24">
-        <v>10.49483731442253</v>
+        <v>6.191107078642489</v>
       </c>
       <c r="K24">
-        <v>11.20537148986668</v>
+        <v>15.36418395066874</v>
       </c>
       <c r="L24">
-        <v>10.47156177649872</v>
+        <v>8.222479461563401</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.12032837628616</v>
+        <v>12.63150714724737</v>
       </c>
       <c r="O24">
-        <v>25.93653128966769</v>
+        <v>17.09721291995573</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.42362782289627</v>
+        <v>13.11901170961684</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.965297030830088</v>
+        <v>5.627018802945416</v>
       </c>
       <c r="E25">
-        <v>13.97635236142272</v>
+        <v>8.258597765899967</v>
       </c>
       <c r="F25">
-        <v>34.40885281608128</v>
+        <v>23.20862996596354</v>
       </c>
       <c r="G25">
-        <v>3.664525177429988</v>
+        <v>2.094866306008002</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.11689044381743</v>
+        <v>16.41018815819034</v>
       </c>
       <c r="J25">
-        <v>10.52354668871092</v>
+        <v>6.267300182203048</v>
       </c>
       <c r="K25">
-        <v>10.77044749283085</v>
+        <v>14.02843827138488</v>
       </c>
       <c r="L25">
-        <v>10.39704415633026</v>
+        <v>7.70893434166149</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.22061357800364</v>
+        <v>12.97811698865856</v>
       </c>
       <c r="O25">
-        <v>26.02722119989309</v>
+        <v>16.87509379217321</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.22358897729559</v>
+        <v>10.07110706553419</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.510376248717477</v>
+        <v>2.072646856124028</v>
       </c>
       <c r="E2">
-        <v>8.314986547459883</v>
+        <v>31.51251701979447</v>
       </c>
       <c r="F2">
-        <v>22.85606320579772</v>
+        <v>24.56165965671889</v>
       </c>
       <c r="G2">
-        <v>2.101346563373814</v>
+        <v>35.9267973137101</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4.413919534380332</v>
       </c>
       <c r="I2">
-        <v>16.70035028913896</v>
+        <v>3.396233145278542</v>
       </c>
       <c r="J2">
-        <v>6.326534026616379</v>
+        <v>9.831498149504849</v>
       </c>
       <c r="K2">
-        <v>12.95911811977218</v>
+        <v>17.48601896642171</v>
       </c>
       <c r="L2">
-        <v>7.3170343485682</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.24150544883951</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.75536621995852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>18.02349849634121</v>
+      </c>
+      <c r="Q2">
+        <v>18.80947629602496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.58419801390305</v>
+        <v>9.469452693691666</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.43375075621751</v>
+        <v>2.011273384765083</v>
       </c>
       <c r="E3">
-        <v>8.358362981034299</v>
+        <v>29.62929689500078</v>
       </c>
       <c r="F3">
-        <v>22.65013496741297</v>
+        <v>23.04066960629008</v>
       </c>
       <c r="G3">
-        <v>2.105922694004414</v>
+        <v>33.4901366559864</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.141136017262277</v>
       </c>
       <c r="I3">
-        <v>16.91496300807514</v>
+        <v>3.449856778822138</v>
       </c>
       <c r="J3">
-        <v>6.368670387678116</v>
+        <v>9.399448728397603</v>
       </c>
       <c r="K3">
-        <v>12.18093304643877</v>
+        <v>17.06054510568831</v>
       </c>
       <c r="L3">
-        <v>7.044336601904365</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.42547447438991</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.69997293556067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>17.39752452283048</v>
+      </c>
+      <c r="Q3">
+        <v>17.72496402929321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.1765682562089</v>
+        <v>9.074400525888834</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.388008525805319</v>
+        <v>1.971595592722412</v>
       </c>
       <c r="E4">
-        <v>8.387491494102518</v>
+        <v>28.41373953811853</v>
       </c>
       <c r="F4">
-        <v>22.53961174137823</v>
+        <v>22.06549614296241</v>
       </c>
       <c r="G4">
-        <v>2.108826544074617</v>
+        <v>31.93724424972374</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.968141076107908</v>
       </c>
       <c r="I4">
-        <v>17.05523443700154</v>
+        <v>3.484513120417371</v>
       </c>
       <c r="J4">
-        <v>6.395537821510891</v>
+        <v>9.128193636010893</v>
       </c>
       <c r="K4">
-        <v>11.67685439244982</v>
+        <v>16.80412706202267</v>
       </c>
       <c r="L4">
-        <v>6.873994872715919</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.54124305943944</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.67809670290516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>17.00656483005289</v>
+      </c>
+      <c r="Q4">
+        <v>17.03289353741609</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.00686131626625</v>
+        <v>8.895136084129939</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.369713110262641</v>
+        <v>1.954931188484972</v>
       </c>
       <c r="E5">
-        <v>8.399981798343029</v>
+        <v>27.90356262375292</v>
       </c>
       <c r="F5">
-        <v>22.49851279001205</v>
+        <v>21.65793092303544</v>
       </c>
       <c r="G5">
-        <v>2.11003398161453</v>
+        <v>31.28541122636793</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.896228326766182</v>
       </c>
       <c r="I5">
-        <v>17.11448304475635</v>
+        <v>3.501824924584614</v>
       </c>
       <c r="J5">
-        <v>6.406738589547624</v>
+        <v>9.016283131538147</v>
       </c>
       <c r="K5">
-        <v>11.46486567334462</v>
+        <v>16.71490464977857</v>
       </c>
       <c r="L5">
-        <v>6.803950669432568</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.58914225210598</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.67214647799105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>16.85386873519077</v>
+      </c>
+      <c r="Q5">
+        <v>16.7444962881794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.97847067651757</v>
+        <v>8.85045053723379</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.366696471208505</v>
+        <v>1.952134346290327</v>
       </c>
       <c r="E6">
-        <v>8.402093056196382</v>
+        <v>27.81795549951644</v>
       </c>
       <c r="F6">
-        <v>22.49192430385207</v>
+        <v>21.58964784109699</v>
       </c>
       <c r="G6">
-        <v>2.110235943432285</v>
+        <v>31.176028490221</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.884200850900416</v>
       </c>
       <c r="I6">
-        <v>17.12444588390857</v>
+        <v>3.50824669828024</v>
       </c>
       <c r="J6">
-        <v>6.408613743537314</v>
+        <v>8.997621809765102</v>
       </c>
       <c r="K6">
-        <v>11.42926940920058</v>
+        <v>16.71724178558905</v>
       </c>
       <c r="L6">
-        <v>6.79228508835821</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.59713996729321</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>16.67133488833441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>16.8383080947413</v>
+      </c>
+      <c r="Q6">
+        <v>16.69623039689859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17429380970057</v>
+        <v>9.033205367801353</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.387760369582286</v>
+        <v>1.971372848071995</v>
       </c>
       <c r="E7">
-        <v>8.387657440889031</v>
+        <v>28.4069190251354</v>
       </c>
       <c r="F7">
-        <v>22.53904160248294</v>
+        <v>22.06004045089546</v>
       </c>
       <c r="G7">
-        <v>2.108842729873849</v>
+        <v>31.9285303090846</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.967177009554205</v>
       </c>
       <c r="I7">
-        <v>17.05602509804613</v>
+        <v>3.4939998629078</v>
       </c>
       <c r="J7">
-        <v>6.395687856064939</v>
+        <v>9.126689739862389</v>
       </c>
       <c r="K7">
-        <v>11.67402199584656</v>
+        <v>16.84935607878382</v>
       </c>
       <c r="L7">
-        <v>6.873052635321854</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.54188609865076</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.67800457027553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>17.03128100020918</v>
+      </c>
+      <c r="Q7">
+        <v>17.0290295996815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.00635101934938</v>
+        <v>9.8214411732454</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.483694751899184</v>
+        <v>2.051902659387868</v>
       </c>
       <c r="E8">
-        <v>8.329420414828952</v>
+        <v>30.87551171780762</v>
       </c>
       <c r="F8">
-        <v>22.78172083683953</v>
+        <v>24.04589402848932</v>
       </c>
       <c r="G8">
-        <v>2.102905153384601</v>
+        <v>35.09754434051207</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.320986758575229</v>
       </c>
       <c r="I8">
-        <v>16.77255350257511</v>
+        <v>3.425855209441119</v>
       </c>
       <c r="J8">
-        <v>6.340857072472692</v>
+        <v>9.683840104137658</v>
       </c>
       <c r="K8">
-        <v>12.69626762836756</v>
+        <v>17.39898570124812</v>
       </c>
       <c r="L8">
-        <v>7.223668818696593</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.30436424466262</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.73369659407491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>17.84361598522131</v>
+      </c>
+      <c r="Q8">
+        <v>18.44107878545446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.51204859626666</v>
+        <v>11.22430155173009</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.681439521503077</v>
+        <v>2.193758469364456</v>
       </c>
       <c r="E9">
-        <v>8.23535615753082</v>
+        <v>35.24504953402662</v>
       </c>
       <c r="F9">
-        <v>23.38623436487099</v>
+        <v>27.625870363447</v>
       </c>
       <c r="G9">
-        <v>2.091987450632037</v>
+        <v>40.77835512480399</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.972639787591094</v>
       </c>
       <c r="I9">
-        <v>16.28656471646766</v>
+        <v>3.291096979831313</v>
       </c>
       <c r="J9">
-        <v>6.241152852241876</v>
+        <v>10.72423450015809</v>
       </c>
       <c r="K9">
-        <v>14.49170083300671</v>
+        <v>18.42736281912068</v>
       </c>
       <c r="L9">
-        <v>7.884238003818719</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.86014025459563</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>16.94290726600477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>19.32919111101099</v>
+      </c>
+      <c r="Q9">
+        <v>20.9957380894383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.53458294513808</v>
+        <v>12.11325039933709</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.831574254841524</v>
+        <v>2.310072501018744</v>
       </c>
       <c r="E10">
-        <v>8.179016262891931</v>
+        <v>37.29635707322594</v>
       </c>
       <c r="F10">
-        <v>23.91133201657312</v>
+        <v>30.03866108906341</v>
       </c>
       <c r="G10">
-        <v>2.084378458044066</v>
+        <v>44.30907731206307</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5.385526929648112</v>
       </c>
       <c r="I10">
-        <v>15.97588417331076</v>
+        <v>3.205139096464463</v>
       </c>
       <c r="J10">
-        <v>6.17255262177819</v>
+        <v>11.39247492535363</v>
       </c>
       <c r="K10">
-        <v>15.68310095092397</v>
+        <v>19.21661773433168</v>
       </c>
       <c r="L10">
-        <v>8.348556680275259</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.54581638534249</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>17.16236773902413</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>20.38503186288386</v>
+      </c>
+      <c r="Q10">
+        <v>22.75496679192755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.98059331538584</v>
+        <v>12.44442528350937</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.900714063767181</v>
+        <v>2.563663453215334</v>
       </c>
       <c r="E11">
-        <v>8.156272831522653</v>
+        <v>30.81223697021241</v>
       </c>
       <c r="F11">
-        <v>24.16816645780916</v>
+        <v>29.78429903360374</v>
       </c>
       <c r="G11">
-        <v>2.080999409730754</v>
+        <v>43.58311598726675</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.616659145951585</v>
       </c>
       <c r="I11">
-        <v>15.84555565044824</v>
+        <v>3.182562769594102</v>
       </c>
       <c r="J11">
-        <v>6.142330084398029</v>
+        <v>11.1767437336273</v>
       </c>
       <c r="K11">
-        <v>16.19751513977575</v>
+        <v>19.64575859545614</v>
       </c>
       <c r="L11">
-        <v>8.554466111666748</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.40518607629814</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>17.27742147064656</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>20.89080947389857</v>
+      </c>
+      <c r="Q11">
+        <v>22.39713327810053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.14667434739053</v>
+        <v>12.59132373127666</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.926999173103652</v>
+        <v>2.767133435402441</v>
       </c>
       <c r="E12">
-        <v>8.1480855732283</v>
+        <v>25.05731502740492</v>
       </c>
       <c r="F12">
-        <v>24.26802573141967</v>
+        <v>29.07546916110195</v>
       </c>
       <c r="G12">
-        <v>2.07973108137128</v>
+        <v>42.24736429732421</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>6.237937671084644</v>
       </c>
       <c r="I12">
-        <v>15.79787340702692</v>
+        <v>3.166611828530261</v>
       </c>
       <c r="J12">
-        <v>6.131025168478484</v>
+        <v>10.84850170145483</v>
       </c>
       <c r="K12">
-        <v>16.38836702839023</v>
+        <v>19.77095357159443</v>
       </c>
       <c r="L12">
-        <v>8.631623802925331</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.35225050901015</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>17.3232483130091</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>21.05996035377492</v>
+      </c>
+      <c r="Q12">
+        <v>21.72326754345869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.11103174770989</v>
+        <v>12.56482301546106</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.921333884557716</v>
+        <v>2.943809514685368</v>
       </c>
       <c r="E13">
-        <v>8.149829767576279</v>
+        <v>19.49624690559538</v>
       </c>
       <c r="F13">
-        <v>24.2464033074934</v>
+        <v>27.95062371099609</v>
       </c>
       <c r="G13">
-        <v>2.080003748320677</v>
+        <v>40.31767639658094</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.085888880659661</v>
       </c>
       <c r="I13">
-        <v>15.80806684944952</v>
+        <v>3.168420907564583</v>
       </c>
       <c r="J13">
-        <v>6.133453699762565</v>
+        <v>10.40524599824507</v>
       </c>
       <c r="K13">
-        <v>16.34743880176363</v>
+        <v>19.73657323380094</v>
       </c>
       <c r="L13">
-        <v>8.615043529325552</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.36363732762828</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>17.31327716753323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>21.01956538536925</v>
+      </c>
+      <c r="Q13">
+        <v>20.74356323316855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.99431357672097</v>
+        <v>12.45871425227805</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.902874583871215</v>
+        <v>3.056828410694519</v>
       </c>
       <c r="E14">
-        <v>8.155590679225124</v>
+        <v>15.85806279836392</v>
       </c>
       <c r="F14">
-        <v>24.17632971412216</v>
+        <v>26.95979231451664</v>
       </c>
       <c r="G14">
-        <v>2.080894841770652</v>
+        <v>38.6719519127929</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.782501013475226</v>
       </c>
       <c r="I14">
-        <v>15.8415987927342</v>
+        <v>3.180552969947134</v>
       </c>
       <c r="J14">
-        <v>6.141397232627196</v>
+        <v>10.03791601949644</v>
       </c>
       <c r="K14">
-        <v>16.21329559470334</v>
+        <v>19.65289514745005</v>
       </c>
       <c r="L14">
-        <v>8.56083053687049</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.4008247838746</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>17.28114602371648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>20.90303475251687</v>
+      </c>
+      <c r="Q14">
+        <v>19.90649323966066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.92245241568969</v>
+        <v>12.38328093506282</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.891580671596237</v>
+        <v>3.077355927417517</v>
       </c>
       <c r="E15">
-        <v>8.159175087244577</v>
+        <v>15.01738713704744</v>
       </c>
       <c r="F15">
-        <v>24.13374687468082</v>
+        <v>26.62442171443514</v>
       </c>
       <c r="G15">
-        <v>2.081442108327302</v>
+        <v>38.13543806453186</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.943310175472987</v>
       </c>
       <c r="I15">
-        <v>15.86235836307748</v>
+        <v>3.191289070314249</v>
       </c>
       <c r="J15">
-        <v>6.146281015842931</v>
+        <v>9.923695739391185</v>
       </c>
       <c r="K15">
-        <v>16.13061579052707</v>
+        <v>19.61636156342751</v>
       </c>
       <c r="L15">
-        <v>8.527515886098977</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.42364396034951</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>17.26176089453221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>20.83946207583681</v>
+      </c>
+      <c r="Q15">
+        <v>19.63251974898985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.5050443399536</v>
+        <v>12.00548046839709</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.82707122740089</v>
+        <v>2.997938480660383</v>
       </c>
       <c r="E16">
-        <v>8.180561531018492</v>
+        <v>14.87812078050915</v>
       </c>
       <c r="F16">
-        <v>23.89491047795872</v>
+        <v>25.7659878445276</v>
       </c>
       <c r="G16">
-        <v>2.084600893312437</v>
+        <v>36.91053950359834</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.660739409246655</v>
       </c>
       <c r="I16">
-        <v>15.98463019700121</v>
+        <v>3.232952879941736</v>
       </c>
       <c r="J16">
-        <v>6.174547383255244</v>
+        <v>9.708386443791596</v>
       </c>
       <c r="K16">
-        <v>15.64892955915102</v>
+        <v>19.31373552454697</v>
       </c>
       <c r="L16">
-        <v>8.334988493017335</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.55505257784973</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>17.15516104236291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>20.42046714942443</v>
+      </c>
+      <c r="Q16">
+        <v>18.9967202110048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.24402629330449</v>
+        <v>11.76658581855814</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.787699766161069</v>
+        <v>2.873301182057695</v>
       </c>
       <c r="E17">
-        <v>8.194427659077771</v>
+        <v>16.67373059312063</v>
       </c>
       <c r="F17">
-        <v>23.75300822453831</v>
+        <v>25.65108559226199</v>
       </c>
       <c r="G17">
-        <v>2.086559377928048</v>
+        <v>36.87753641026143</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.02476943829865</v>
       </c>
       <c r="I17">
-        <v>16.06251811789749</v>
+        <v>3.259104488955878</v>
       </c>
       <c r="J17">
-        <v>6.192138641316851</v>
+        <v>9.745272924165574</v>
       </c>
       <c r="K17">
-        <v>15.34638247413737</v>
+        <v>19.12799693385067</v>
       </c>
       <c r="L17">
-        <v>8.215479014922543</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.63625670615018</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.09371476642436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>20.16011624078777</v>
+      </c>
+      <c r="Q17">
+        <v>18.96950531018193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.09209603969125</v>
+        <v>11.65328601419815</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.765134704867357</v>
+        <v>2.700110207342662</v>
       </c>
       <c r="E18">
-        <v>8.202674080087595</v>
+        <v>20.80424627189183</v>
       </c>
       <c r="F18">
-        <v>23.67308006399391</v>
+        <v>26.17968766275379</v>
       </c>
       <c r="G18">
-        <v>2.087693632359004</v>
+        <v>37.89277141949435</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>6.124433017001516</v>
       </c>
       <c r="I18">
-        <v>16.10834695530299</v>
+        <v>3.265565125593975</v>
       </c>
       <c r="J18">
-        <v>6.202349399262879</v>
+        <v>10.00238808494642</v>
       </c>
       <c r="K18">
-        <v>15.1697698949052</v>
+        <v>18.98269070578928</v>
       </c>
       <c r="L18">
-        <v>8.146242914568459</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.6831863533941</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.05980117652223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>19.98799054081197</v>
+      </c>
+      <c r="Q18">
+        <v>19.47798514014958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.04034808837915</v>
+        <v>11.59390822762419</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.757508917467795</v>
+        <v>2.508970537997131</v>
       </c>
       <c r="E19">
-        <v>8.205512416988494</v>
+        <v>26.76589938003137</v>
       </c>
       <c r="F19">
-        <v>23.64630741275372</v>
+        <v>27.18245948931962</v>
       </c>
       <c r="G19">
-        <v>2.088079026198238</v>
+        <v>39.6674839526413</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>5.355079688917765</v>
       </c>
       <c r="I19">
-        <v>16.12403811416962</v>
+        <v>3.274500571847977</v>
       </c>
       <c r="J19">
-        <v>6.205822568089603</v>
+        <v>10.41147892583369</v>
       </c>
       <c r="K19">
-        <v>15.10952569659404</v>
+        <v>18.96313639254058</v>
       </c>
       <c r="L19">
-        <v>8.122717057101028</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.69911487664936</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.04856179701335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>19.94584405607849</v>
+      </c>
+      <c r="Q19">
+        <v>20.37736715424228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.27199884645398</v>
+        <v>11.79435977111341</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.791882739262375</v>
+        <v>2.281179092170299</v>
       </c>
       <c r="E20">
-        <v>8.192923467290866</v>
+        <v>36.72981096855779</v>
       </c>
       <c r="F20">
-        <v>23.7679388752077</v>
+        <v>29.4137426925415</v>
       </c>
       <c r="G20">
-        <v>2.086350092282175</v>
+        <v>43.39269820653484</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>5.275959306258533</v>
       </c>
       <c r="I20">
-        <v>16.05411962467211</v>
+        <v>3.255602238595204</v>
       </c>
       <c r="J20">
-        <v>6.190256437555259</v>
+        <v>11.21670011910263</v>
       </c>
       <c r="K20">
-        <v>15.37885764414199</v>
+        <v>19.14476418253741</v>
       </c>
       <c r="L20">
-        <v>8.228252886961615</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.62758943774781</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.10010744467548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>20.1863008069602</v>
+      </c>
+      <c r="Q20">
+        <v>22.28098477411306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.02867329118542</v>
+        <v>12.46205295727272</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.908293861675356</v>
+        <v>2.332840755660059</v>
       </c>
       <c r="E21">
-        <v>8.153886936542685</v>
+        <v>39.57372567364275</v>
       </c>
       <c r="F21">
-        <v>24.19684130048557</v>
+        <v>31.42443454349617</v>
       </c>
       <c r="G21">
-        <v>2.080632805768821</v>
+        <v>46.39810325892542</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.652473993143919</v>
       </c>
       <c r="I21">
-        <v>15.83170357150902</v>
+        <v>3.186301592984774</v>
       </c>
       <c r="J21">
-        <v>6.139060247334373</v>
+        <v>11.80885338973471</v>
       </c>
       <c r="K21">
-        <v>16.25280362096931</v>
+        <v>19.71918307887119</v>
       </c>
       <c r="L21">
-        <v>8.576776717038118</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.38989346558052</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>17.29052188869167</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>20.96009581783558</v>
+      </c>
+      <c r="Q21">
+        <v>23.83243621482349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.50678766192289</v>
+        <v>12.91058206277682</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.984969950691288</v>
+        <v>2.376008484769351</v>
       </c>
       <c r="E22">
-        <v>8.130857723240394</v>
+        <v>40.93010792665152</v>
       </c>
       <c r="F22">
-        <v>24.49232313360694</v>
+        <v>32.61516141897989</v>
       </c>
       <c r="G22">
-        <v>2.076961466099764</v>
+        <v>48.15939008767695</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.872860374433479</v>
       </c>
       <c r="I22">
-        <v>15.69612472012127</v>
+        <v>3.130989587153459</v>
       </c>
       <c r="J22">
-        <v>6.106414038532811</v>
+        <v>12.15777632265156</v>
       </c>
       <c r="K22">
-        <v>16.80099190794501</v>
+        <v>20.04096143671383</v>
       </c>
       <c r="L22">
-        <v>8.79978432047716</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.23638896332979</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.42816246717816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>21.42560416941211</v>
+      </c>
+      <c r="Q22">
+        <v>24.74192583961951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25312707714808</v>
+        <v>12.70666215948071</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.943997785812828</v>
+        <v>2.35314494378762</v>
       </c>
       <c r="E23">
-        <v>8.142918108359899</v>
+        <v>40.21082312578631</v>
       </c>
       <c r="F23">
-        <v>24.33322622544972</v>
+        <v>31.98366827679435</v>
       </c>
       <c r="G23">
-        <v>2.078915165116973</v>
+        <v>47.22531560716777</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.755543742063581</v>
       </c>
       <c r="I23">
-        <v>15.76755925342032</v>
+        <v>3.149482364065693</v>
       </c>
       <c r="J23">
-        <v>6.123764098089722</v>
+        <v>11.97225215802023</v>
       </c>
       <c r="K23">
-        <v>16.51050948335408</v>
+        <v>19.81931143575143</v>
       </c>
       <c r="L23">
-        <v>8.681212635031962</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.318155694106</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>17.35347185851401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>21.15093689908225</v>
+      </c>
+      <c r="Q23">
+        <v>24.25963842951909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.25935826728616</v>
+        <v>11.83770894768114</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.789991397366935</v>
+        <v>2.262714114234815</v>
       </c>
       <c r="E24">
-        <v>8.193602657847986</v>
+        <v>37.38415487702422</v>
       </c>
       <c r="F24">
-        <v>23.76118357971001</v>
+        <v>29.50294487530877</v>
       </c>
       <c r="G24">
-        <v>2.08644468443948</v>
+        <v>43.55563378382647</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>5.30418996599861</v>
       </c>
       <c r="I24">
-        <v>16.05791331942021</v>
+        <v>3.239445799535454</v>
       </c>
       <c r="J24">
-        <v>6.191107078642489</v>
+        <v>11.25435408371169</v>
       </c>
       <c r="K24">
-        <v>15.36418395066874</v>
+        <v>19.05624324689389</v>
       </c>
       <c r="L24">
-        <v>8.222479461563401</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63150714724737</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.09721291995573</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>20.12991125324816</v>
+      </c>
+      <c r="Q24">
+        <v>22.36376436357782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.11901170961684</v>
+        <v>10.80811354696446</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.627018802945416</v>
+        <v>2.15713369928426</v>
       </c>
       <c r="E25">
-        <v>8.258597765899967</v>
+        <v>34.11346871640711</v>
       </c>
       <c r="F25">
-        <v>23.20862996596354</v>
+        <v>26.67967337940143</v>
       </c>
       <c r="G25">
-        <v>2.094866306008002</v>
+        <v>39.30854239459291</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.800642268843704</v>
       </c>
       <c r="I25">
-        <v>16.41018815819034</v>
+        <v>3.342031456233551</v>
       </c>
       <c r="J25">
-        <v>6.267300182203048</v>
+        <v>10.44895657665791</v>
       </c>
       <c r="K25">
-        <v>14.02843827138488</v>
+        <v>18.22730289418028</v>
       </c>
       <c r="L25">
-        <v>7.70893434166149</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.97811698865856</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>16.87509379217321</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>18.98009393091338</v>
+      </c>
+      <c r="Q25">
+        <v>20.32833830186165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.07110706553419</v>
+        <v>11.33443547383995</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.072646856124028</v>
+        <v>2.158834185931302</v>
       </c>
       <c r="E2">
-        <v>31.51251701979447</v>
+        <v>31.36879868473575</v>
       </c>
       <c r="F2">
-        <v>24.56165965671889</v>
+        <v>24.58384679904114</v>
       </c>
       <c r="G2">
-        <v>35.9267973137101</v>
+        <v>36.05283834739047</v>
       </c>
       <c r="H2">
-        <v>4.413919534380332</v>
+        <v>4.343860641141846</v>
       </c>
       <c r="I2">
-        <v>3.396233145278542</v>
+        <v>3.117426566250362</v>
       </c>
       <c r="J2">
-        <v>9.831498149504849</v>
+        <v>10.57540293462846</v>
       </c>
       <c r="K2">
-        <v>17.48601896642171</v>
+        <v>15.45664475526999</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.73430255697955</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.22675008896474</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>18.02349849634121</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>18.80947629602496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>16.952544427668</v>
+      </c>
+      <c r="S2">
+        <v>18.86486619031078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.469452693691666</v>
+        <v>10.67437641196759</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.011273384765083</v>
+        <v>2.093970646256591</v>
       </c>
       <c r="E3">
-        <v>29.62929689500078</v>
+        <v>29.49123596322066</v>
       </c>
       <c r="F3">
-        <v>23.04066960629008</v>
+        <v>23.07817040450032</v>
       </c>
       <c r="G3">
-        <v>33.4901366559864</v>
+        <v>33.55556807154409</v>
       </c>
       <c r="H3">
-        <v>4.141136017262277</v>
+        <v>4.075089649001345</v>
       </c>
       <c r="I3">
-        <v>3.449856778822138</v>
+        <v>3.161742741971353</v>
       </c>
       <c r="J3">
-        <v>9.399448728397603</v>
+        <v>10.16819176435985</v>
       </c>
       <c r="K3">
-        <v>17.06054510568831</v>
+        <v>15.13648485297595</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.33480187017003</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.17347406423672</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>17.39752452283048</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.72496402929321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>16.38364140137059</v>
+      </c>
+      <c r="S3">
+        <v>17.79305025696982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.074400525888834</v>
+        <v>10.24008889278063</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.971595592722412</v>
+        <v>2.052075308965764</v>
       </c>
       <c r="E4">
-        <v>28.41373953811853</v>
+        <v>28.27900253114559</v>
       </c>
       <c r="F4">
-        <v>22.06549614296241</v>
+        <v>22.11271011066491</v>
       </c>
       <c r="G4">
-        <v>31.93724424972374</v>
+        <v>31.94067591207297</v>
       </c>
       <c r="H4">
-        <v>3.968141076107908</v>
+        <v>3.904589258247968</v>
       </c>
       <c r="I4">
-        <v>3.484513120417371</v>
+        <v>3.19073424403769</v>
       </c>
       <c r="J4">
-        <v>9.128193636010893</v>
+        <v>9.911630722839542</v>
       </c>
       <c r="K4">
-        <v>16.80412706202267</v>
+        <v>14.94804894039257</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.11139743915352</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.14480731849372</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>17.00656483005289</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>17.03289353741609</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>16.03023769248815</v>
+      </c>
+      <c r="S4">
+        <v>17.10898790289312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.895136084129939</v>
+        <v>10.04502259285802</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.954931188484972</v>
+        <v>2.034487954937226</v>
       </c>
       <c r="E5">
-        <v>27.90356262375292</v>
+        <v>27.77014379571124</v>
       </c>
       <c r="F5">
-        <v>21.65793092303544</v>
+        <v>21.70919147735959</v>
       </c>
       <c r="G5">
-        <v>31.28541122636793</v>
+        <v>31.26199982907015</v>
       </c>
       <c r="H5">
-        <v>3.896228326766182</v>
+        <v>3.83370216016096</v>
       </c>
       <c r="I5">
-        <v>3.501824924584614</v>
+        <v>3.206280624753819</v>
       </c>
       <c r="J5">
-        <v>9.016283131538147</v>
+        <v>9.805556049030043</v>
       </c>
       <c r="K5">
-        <v>16.71490464977857</v>
+        <v>14.88392074227668</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.03172862259723</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.14431456378574</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>16.85386873519077</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.7444962881794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>15.89214965439244</v>
+      </c>
+      <c r="S5">
+        <v>16.82391321140369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.85045053723379</v>
+        <v>9.998986371700118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.952134346290327</v>
+        <v>2.031536677932478</v>
       </c>
       <c r="E6">
-        <v>27.81795549951644</v>
+        <v>27.68475338744996</v>
       </c>
       <c r="F6">
-        <v>21.58964784109699</v>
+        <v>21.64158596557762</v>
       </c>
       <c r="G6">
-        <v>31.176028490221</v>
+        <v>31.14806037527562</v>
       </c>
       <c r="H6">
-        <v>3.884200850900416</v>
+        <v>3.821845580196269</v>
       </c>
       <c r="I6">
-        <v>3.50824669828024</v>
+        <v>3.213110100447941</v>
       </c>
       <c r="J6">
-        <v>8.997621809765102</v>
+        <v>9.787854133215808</v>
       </c>
       <c r="K6">
-        <v>16.71724178558905</v>
+        <v>14.88629518822669</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.02550316067292</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.15676901062655</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>16.8383080947413</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.69623039689859</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>15.87742067848476</v>
+      </c>
+      <c r="S6">
+        <v>16.77620275339824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.033205367801353</v>
+        <v>10.2022906668204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.971372848071995</v>
+        <v>2.054005222055297</v>
       </c>
       <c r="E7">
-        <v>28.4069190251354</v>
+        <v>28.27103240623734</v>
       </c>
       <c r="F7">
-        <v>22.06004045089546</v>
+        <v>22.08467339395262</v>
       </c>
       <c r="G7">
-        <v>31.9285303090846</v>
+        <v>32.03506907779526</v>
       </c>
       <c r="H7">
-        <v>3.967177009554205</v>
+        <v>3.903085215656489</v>
       </c>
       <c r="I7">
-        <v>3.4939998629078</v>
+        <v>3.202022351382288</v>
       </c>
       <c r="J7">
-        <v>9.126689739862389</v>
+        <v>9.840476874103379</v>
       </c>
       <c r="K7">
-        <v>16.84935607878382</v>
+        <v>14.9825141019642</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.12936034717091</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.17833864669133</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>17.03128100020918</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>17.0290295996815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>16.05079269245918</v>
+      </c>
+      <c r="S7">
+        <v>17.08551465374962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.8214411732454</v>
+        <v>11.06992273469197</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.051902659387868</v>
+        <v>2.14394530318869</v>
       </c>
       <c r="E8">
-        <v>30.87551171780762</v>
+        <v>30.73024739583601</v>
       </c>
       <c r="F8">
-        <v>24.04589402848932</v>
+        <v>24.0035116873958</v>
       </c>
       <c r="G8">
-        <v>35.09754434051207</v>
+        <v>35.52347916991186</v>
       </c>
       <c r="H8">
-        <v>4.320986758575229</v>
+        <v>4.250585687263978</v>
       </c>
       <c r="I8">
-        <v>3.425855209441119</v>
+        <v>3.146120994571856</v>
       </c>
       <c r="J8">
-        <v>9.683840104137658</v>
+        <v>10.21504733220485</v>
       </c>
       <c r="K8">
-        <v>17.39898570124812</v>
+        <v>15.39185707209656</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.62117259275004</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.24977322143243</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>17.84361598522131</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>18.44107878545446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>16.78649298987287</v>
+      </c>
+      <c r="S8">
+        <v>18.43983001570154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.22430155173009</v>
+        <v>12.59730400110736</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.193758469364456</v>
+        <v>2.295653304531591</v>
       </c>
       <c r="E9">
-        <v>35.24504953402662</v>
+        <v>35.08430132017014</v>
       </c>
       <c r="F9">
-        <v>27.625870363447</v>
+        <v>27.51815923659259</v>
       </c>
       <c r="G9">
-        <v>40.77835512480399</v>
+        <v>41.34292962178019</v>
       </c>
       <c r="H9">
-        <v>4.972639787591094</v>
+        <v>4.892045545610793</v>
       </c>
       <c r="I9">
-        <v>3.291096979831313</v>
+        <v>3.032867416503551</v>
       </c>
       <c r="J9">
-        <v>10.72423450015809</v>
+        <v>11.15033326922986</v>
       </c>
       <c r="K9">
-        <v>18.42736281912068</v>
+        <v>16.18963793964949</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.69532773743881</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.36671964085692</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>19.32919111101099</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>20.9957380894383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>18.14834002047584</v>
+      </c>
+      <c r="S9">
+        <v>20.95519373843229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.11325039933709</v>
+        <v>13.56599911466772</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.310072501018744</v>
+        <v>2.429897529913727</v>
       </c>
       <c r="E10">
-        <v>37.29635707322594</v>
+        <v>37.11783092240976</v>
       </c>
       <c r="F10">
-        <v>30.03866108906341</v>
+        <v>29.74452593314077</v>
       </c>
       <c r="G10">
-        <v>44.30907731206307</v>
+        <v>45.4157046199524</v>
       </c>
       <c r="H10">
-        <v>5.385526929648112</v>
+        <v>5.295329030354106</v>
       </c>
       <c r="I10">
-        <v>3.205139096464463</v>
+        <v>2.964091402478094</v>
       </c>
       <c r="J10">
-        <v>11.39247492535363</v>
+        <v>11.40121116169926</v>
       </c>
       <c r="K10">
-        <v>19.21661773433168</v>
+        <v>16.82263761575121</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.55994872055729</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>11.48805719315263</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>20.38503186288386</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>22.75496679192755</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>19.12294297302821</v>
+      </c>
+      <c r="S10">
+        <v>22.47971682452462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.44442528350937</v>
+        <v>13.93568620781753</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.563663453215334</v>
+        <v>2.711774339842061</v>
       </c>
       <c r="E11">
-        <v>30.81223697021241</v>
+        <v>30.60962268050259</v>
       </c>
       <c r="F11">
-        <v>29.78429903360374</v>
+        <v>29.2670212258855</v>
       </c>
       <c r="G11">
-        <v>43.58311598726675</v>
+        <v>45.6815009305525</v>
       </c>
       <c r="H11">
-        <v>5.616659145951585</v>
+        <v>5.528116110345221</v>
       </c>
       <c r="I11">
-        <v>3.182562769594102</v>
+        <v>2.952731960681855</v>
       </c>
       <c r="J11">
-        <v>11.1767437336273</v>
+        <v>10.45139330225341</v>
       </c>
       <c r="K11">
-        <v>19.64575859545614</v>
+        <v>17.1725860730726</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.00335558601388</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.59296957168068</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>20.89080947389857</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>22.39713327810053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>19.58900611088395</v>
+      </c>
+      <c r="S11">
+        <v>21.9254318687466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59132373127666</v>
+        <v>14.09415587138171</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.767133435402441</v>
+        <v>2.930659090444115</v>
       </c>
       <c r="E12">
-        <v>25.05731502740492</v>
+        <v>24.83196939419323</v>
       </c>
       <c r="F12">
-        <v>29.07546916110195</v>
+        <v>28.45717537845051</v>
       </c>
       <c r="G12">
-        <v>42.24736429732421</v>
+        <v>44.8076545085956</v>
       </c>
       <c r="H12">
-        <v>6.237937671084644</v>
+        <v>6.159993323454828</v>
       </c>
       <c r="I12">
-        <v>3.166611828530261</v>
+        <v>2.93935153542488</v>
       </c>
       <c r="J12">
-        <v>10.84850170145483</v>
+        <v>9.804573874940289</v>
       </c>
       <c r="K12">
-        <v>19.77095357159443</v>
+        <v>17.27508430120871</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.14999813473233</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.60884695844007</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>21.05996035377492</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>21.72326754345869</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>19.7462860210541</v>
+      </c>
+      <c r="S12">
+        <v>21.16237423559822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.56482301546106</v>
+        <v>14.06465681950812</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.943809514685368</v>
+        <v>3.102419215943649</v>
       </c>
       <c r="E13">
-        <v>19.49624690559538</v>
+        <v>19.24471257712176</v>
       </c>
       <c r="F13">
-        <v>27.95062371099609</v>
+        <v>27.35934975870706</v>
       </c>
       <c r="G13">
-        <v>40.31767639658094</v>
+        <v>42.78202132254815</v>
       </c>
       <c r="H13">
-        <v>7.085888880659661</v>
+        <v>7.021637419982811</v>
       </c>
       <c r="I13">
-        <v>3.168420907564583</v>
+        <v>2.940241783924777</v>
       </c>
       <c r="J13">
-        <v>10.40524599824507</v>
+        <v>9.477442670370868</v>
       </c>
       <c r="K13">
-        <v>19.73657323380094</v>
+        <v>17.24686872524147</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.11393488073183</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.60054346479085</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>21.01956538536925</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>20.74356323316855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>19.7089872240109</v>
+      </c>
+      <c r="S13">
+        <v>20.20563108210535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.45871425227805</v>
+        <v>13.95071112938698</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.056828410694519</v>
+        <v>3.201378576624251</v>
       </c>
       <c r="E14">
-        <v>15.85806279836392</v>
+        <v>15.58272522598159</v>
       </c>
       <c r="F14">
-        <v>26.95979231451664</v>
+        <v>26.44371572883442</v>
       </c>
       <c r="G14">
-        <v>38.6719519127929</v>
+        <v>40.82376976037537</v>
       </c>
       <c r="H14">
-        <v>7.782501013475226</v>
+        <v>7.727652819409056</v>
       </c>
       <c r="I14">
-        <v>3.180552969947134</v>
+        <v>2.950776857024986</v>
       </c>
       <c r="J14">
-        <v>10.03791601949644</v>
+        <v>9.379151273540304</v>
       </c>
       <c r="K14">
-        <v>19.65289514745005</v>
+        <v>17.17840277068391</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>14.01351541608126</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.59218988734043</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>20.90303475251687</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>19.90649323966066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>19.60048550297085</v>
+      </c>
+      <c r="S14">
+        <v>19.43375769394137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.38328093506282</v>
+        <v>13.87147172683179</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.077355927417517</v>
+        <v>3.213933905933847</v>
       </c>
       <c r="E15">
-        <v>15.01738713704744</v>
+        <v>14.73737667965309</v>
       </c>
       <c r="F15">
-        <v>26.62442171443514</v>
+        <v>26.15115645167344</v>
       </c>
       <c r="G15">
-        <v>38.13543806453186</v>
+        <v>40.10444248299802</v>
       </c>
       <c r="H15">
-        <v>7.943310175472987</v>
+        <v>7.891011693442031</v>
       </c>
       <c r="I15">
-        <v>3.191289070314249</v>
+        <v>2.961279093383718</v>
       </c>
       <c r="J15">
-        <v>9.923695739391185</v>
+        <v>9.410739860583545</v>
       </c>
       <c r="K15">
-        <v>19.61636156342751</v>
+        <v>17.14864440743192</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.96086084108377</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.59681730403622</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>20.83946207583681</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>19.63251974898985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>19.54076454982586</v>
+      </c>
+      <c r="S15">
+        <v>19.1970584832308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00548046839709</v>
+        <v>13.46458056296864</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.997938480660383</v>
+        <v>3.098337995735018</v>
       </c>
       <c r="E16">
-        <v>14.87812078050915</v>
+        <v>14.61948343232883</v>
       </c>
       <c r="F16">
-        <v>25.7659878445276</v>
+        <v>25.4982260812654</v>
       </c>
       <c r="G16">
-        <v>36.91053950359834</v>
+        <v>37.98496374994085</v>
       </c>
       <c r="H16">
-        <v>7.660739409246655</v>
+        <v>7.612398203920491</v>
       </c>
       <c r="I16">
-        <v>3.232952879941736</v>
+        <v>2.997020048549637</v>
       </c>
       <c r="J16">
-        <v>9.708386443791596</v>
+        <v>9.864525209094127</v>
       </c>
       <c r="K16">
-        <v>19.31373552454697</v>
+        <v>16.90229397279461</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.60460190385727</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.56367067056884</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>20.42046714942443</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>18.9967202110048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>19.15146154352508</v>
+      </c>
+      <c r="S16">
+        <v>18.77181749166837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.76658581855814</v>
+        <v>13.20718206144263</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.873301182057695</v>
+        <v>2.960063539566692</v>
       </c>
       <c r="E17">
-        <v>16.67373059312063</v>
+        <v>16.44288588637022</v>
       </c>
       <c r="F17">
-        <v>25.65108559226199</v>
+        <v>25.47473842591393</v>
       </c>
       <c r="G17">
-        <v>36.87753641026143</v>
+        <v>37.54716274798599</v>
       </c>
       <c r="H17">
-        <v>7.02476943829865</v>
+        <v>6.974552868124337</v>
       </c>
       <c r="I17">
-        <v>3.259104488955878</v>
+        <v>3.019599078598877</v>
       </c>
       <c r="J17">
-        <v>9.745272924165574</v>
+        <v>10.18613495202213</v>
       </c>
       <c r="K17">
-        <v>19.12799693385067</v>
+        <v>16.75200151722284</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.38738669389022</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.54447758545404</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>20.16011624078777</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>18.96950531018193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>18.90990782811448</v>
+      </c>
+      <c r="S17">
+        <v>18.88681329787563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.65328601419815</v>
+        <v>13.08022925795685</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.700110207342662</v>
+        <v>2.784997895143573</v>
       </c>
       <c r="E18">
-        <v>20.80424627189183</v>
+        <v>20.60428303897859</v>
       </c>
       <c r="F18">
-        <v>26.17968766275379</v>
+        <v>26.04334340192394</v>
       </c>
       <c r="G18">
-        <v>37.89277141949435</v>
+        <v>38.37972569354361</v>
       </c>
       <c r="H18">
-        <v>6.124433017001516</v>
+        <v>6.066416957322729</v>
       </c>
       <c r="I18">
-        <v>3.265565125593975</v>
+        <v>3.022020911339172</v>
       </c>
       <c r="J18">
-        <v>10.00238808494642</v>
+        <v>10.55207049717562</v>
       </c>
       <c r="K18">
-        <v>18.98269070578928</v>
+        <v>16.6345729927367</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.24088982142716</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.50837938624689</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>19.98799054081197</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>19.47798514014958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>18.75179941896943</v>
+      </c>
+      <c r="S18">
+        <v>19.45969789180731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.59390822762419</v>
+        <v>13.01831231629089</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.508970537997131</v>
+        <v>2.598745910320496</v>
       </c>
       <c r="E19">
-        <v>26.76589938003137</v>
+        <v>26.58788098563362</v>
       </c>
       <c r="F19">
-        <v>27.18245948931962</v>
+        <v>27.05302377862496</v>
       </c>
       <c r="G19">
-        <v>39.6674839526413</v>
+        <v>40.09860378812075</v>
       </c>
       <c r="H19">
-        <v>5.355079688917765</v>
+        <v>5.284669575618001</v>
       </c>
       <c r="I19">
-        <v>3.274500571847977</v>
+        <v>3.031118073889721</v>
       </c>
       <c r="J19">
-        <v>10.41147892583369</v>
+        <v>10.97379971887302</v>
       </c>
       <c r="K19">
-        <v>18.96313639254058</v>
+        <v>16.61901493756878</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.20851008762124</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>11.51584384875381</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>19.94584405607849</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>20.37736715424228</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>18.71213696243687</v>
+      </c>
+      <c r="S19">
+        <v>20.36129538955693</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.79435977111341</v>
+        <v>13.23673646660933</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.281179092170299</v>
+        <v>2.388934936791431</v>
       </c>
       <c r="E20">
-        <v>36.72981096855779</v>
+        <v>36.55906746397401</v>
       </c>
       <c r="F20">
-        <v>29.4137426925415</v>
+        <v>29.21643920942893</v>
       </c>
       <c r="G20">
-        <v>43.39269820653484</v>
+        <v>44.08323787393478</v>
       </c>
       <c r="H20">
-        <v>5.275959306258533</v>
+        <v>5.189874884382577</v>
       </c>
       <c r="I20">
-        <v>3.255602238595204</v>
+        <v>3.016315391419516</v>
       </c>
       <c r="J20">
-        <v>11.21670011910263</v>
+        <v>11.54622527942084</v>
       </c>
       <c r="K20">
-        <v>19.14476418253741</v>
+        <v>16.76551284967356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.40870233908763</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.54449239672256</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>20.1863008069602</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>22.28098477411306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>18.93430068504601</v>
+      </c>
+      <c r="S20">
+        <v>22.11335195634165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.46205295727272</v>
+        <v>13.95929711500363</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.332840755660059</v>
+        <v>2.493497949174757</v>
       </c>
       <c r="E21">
-        <v>39.57372567364275</v>
+        <v>39.37447885174309</v>
       </c>
       <c r="F21">
-        <v>31.42443454349617</v>
+        <v>30.80835774616325</v>
       </c>
       <c r="G21">
-        <v>46.39810325892542</v>
+        <v>48.89727890718287</v>
       </c>
       <c r="H21">
-        <v>5.652473993143919</v>
+        <v>5.550476173876516</v>
       </c>
       <c r="I21">
-        <v>3.186301592984774</v>
+        <v>2.959115222706823</v>
       </c>
       <c r="J21">
-        <v>11.80885338973471</v>
+        <v>10.72691642610438</v>
       </c>
       <c r="K21">
-        <v>19.71918307887119</v>
+        <v>17.23287453370182</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.06799392747156</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.62192781803944</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>20.96009581783558</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>23.83243621482349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>19.6520595502616</v>
+      </c>
+      <c r="S21">
+        <v>23.27463429838651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.91058206277682</v>
+        <v>14.43787908152943</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.376008484769351</v>
+        <v>2.574311131037719</v>
       </c>
       <c r="E22">
-        <v>40.93010792665152</v>
+        <v>40.71216233159273</v>
       </c>
       <c r="F22">
-        <v>32.61516141897989</v>
+        <v>31.71686820260464</v>
       </c>
       <c r="G22">
-        <v>48.15939008767695</v>
+        <v>51.87745220317311</v>
       </c>
       <c r="H22">
-        <v>5.872860374433479</v>
+        <v>5.760784566142913</v>
       </c>
       <c r="I22">
-        <v>3.130989587153459</v>
+        <v>2.909184254043181</v>
       </c>
       <c r="J22">
-        <v>12.15777632265156</v>
+        <v>10.10487956163104</v>
       </c>
       <c r="K22">
-        <v>20.04096143671383</v>
+        <v>17.49701563299556</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.47013361297054</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.64165054041794</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>21.42560416941211</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>24.74192583961951</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>20.0867723987182</v>
+      </c>
+      <c r="S22">
+        <v>23.9367034938829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.70666215948071</v>
+        <v>14.21459247315847</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.35314494378762</v>
+        <v>2.525826947005425</v>
       </c>
       <c r="E23">
-        <v>40.21082312578631</v>
+        <v>40.00469797283851</v>
       </c>
       <c r="F23">
-        <v>31.98366827679435</v>
+        <v>31.27865228911792</v>
       </c>
       <c r="G23">
-        <v>47.22531560716777</v>
+        <v>50.10461629116475</v>
       </c>
       <c r="H23">
-        <v>5.755543742063581</v>
+        <v>5.649794955182007</v>
       </c>
       <c r="I23">
-        <v>3.149482364065693</v>
+        <v>2.922337274159551</v>
       </c>
       <c r="J23">
-        <v>11.97225215802023</v>
+        <v>10.5851919221514</v>
       </c>
       <c r="K23">
-        <v>19.81931143575143</v>
+        <v>17.31457960359086</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.22522920813323</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.59808694405446</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>21.15093689908225</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>24.25963842951909</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>19.83209583748968</v>
+      </c>
+      <c r="S23">
+        <v>23.62397058299243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.83770894768114</v>
+        <v>13.2734852883144</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.262714114234815</v>
+        <v>2.370626954278057</v>
       </c>
       <c r="E24">
-        <v>37.38415487702422</v>
+        <v>37.21408721086049</v>
       </c>
       <c r="F24">
-        <v>29.50294487530877</v>
+        <v>29.30897303121236</v>
       </c>
       <c r="G24">
-        <v>43.55563378382647</v>
+        <v>44.22970532714106</v>
       </c>
       <c r="H24">
-        <v>5.30418996599861</v>
+        <v>5.217946768685828</v>
       </c>
       <c r="I24">
-        <v>3.239445799535454</v>
+        <v>2.996067168826209</v>
       </c>
       <c r="J24">
-        <v>11.25435408371169</v>
+        <v>11.59417990325058</v>
       </c>
       <c r="K24">
-        <v>19.05624324689389</v>
+        <v>16.69337662711432</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.35207491009228</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.49102066611385</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>20.12991125324816</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>22.36376436357782</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>18.88496786611796</v>
+      </c>
+      <c r="S24">
+        <v>22.19815101460945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.80811354696446</v>
+        <v>12.15583719678394</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.15713369928426</v>
+        <v>2.253499529841007</v>
       </c>
       <c r="E25">
-        <v>34.11346871640711</v>
+        <v>33.95843230444464</v>
       </c>
       <c r="F25">
-        <v>26.67967337940143</v>
+        <v>26.6308069438595</v>
       </c>
       <c r="G25">
-        <v>39.30854239459291</v>
+        <v>39.71499478660508</v>
       </c>
       <c r="H25">
-        <v>4.800642268843704</v>
+        <v>4.723481409973631</v>
       </c>
       <c r="I25">
-        <v>3.342031456233551</v>
+        <v>3.081314497504735</v>
       </c>
       <c r="J25">
-        <v>10.44895657665791</v>
+        <v>10.99313509092498</v>
       </c>
       <c r="K25">
-        <v>18.22730289418028</v>
+        <v>16.03287778909612</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.43549973059524</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.38584048182822</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>18.98009393091338</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>20.32833830186165</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>17.82409407203374</v>
+      </c>
+      <c r="S25">
+        <v>20.32227305487467</v>
       </c>
     </row>
   </sheetData>
